--- a/powerapp/data/ufls_assignment.xlsx
+++ b/powerapp/data/ufls_assignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myIjat\Job\1_Operation\Network\System_Defences\UFLS_UVLS\2025_Review\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70289D4-DD90-4D90-8D47-0E19D4C6EBD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4DDD73-2B3B-4AEA-9F22-6739C94A82BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{EAAC684E-7C1B-4F2F-BC7C-B97D8EF3A83B}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="ufls_assignment" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ufls_assignment!$A$1:$C$257</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ufls_assignment!$A$1:$C$177</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="191">
   <si>
     <t>blkg_33</t>
   </si>
@@ -600,240 +600,6 @@
   </si>
   <si>
     <t>sksp_mwta_132</t>
-  </si>
-  <si>
-    <t>msng_11</t>
-  </si>
-  <si>
-    <t>slng_11</t>
-  </si>
-  <si>
-    <t>btgh_33</t>
-  </si>
-  <si>
-    <t>bcvs_11</t>
-  </si>
-  <si>
-    <t>hkck_33</t>
-  </si>
-  <si>
-    <t>slng_33</t>
-  </si>
-  <si>
-    <t>btbn_33</t>
-  </si>
-  <si>
-    <t>hkck_11</t>
-  </si>
-  <si>
-    <t>tjya_33</t>
-  </si>
-  <si>
-    <t>sdai_33</t>
-  </si>
-  <si>
-    <t>utrm_22</t>
-  </si>
-  <si>
-    <t>utrm_33</t>
-  </si>
-  <si>
-    <t>pkan_11</t>
-  </si>
-  <si>
-    <t>rpts_11</t>
-  </si>
-  <si>
-    <t>rngt_11</t>
-  </si>
-  <si>
-    <t>gpth_33</t>
-  </si>
-  <si>
-    <t>pmka_33</t>
-  </si>
-  <si>
-    <t>dkmt_33</t>
-  </si>
-  <si>
-    <t>dbay_33</t>
-  </si>
-  <si>
-    <t>elmw_33</t>
-  </si>
-  <si>
-    <t>pgeh_33</t>
-  </si>
-  <si>
-    <t>jdhl_33</t>
-  </si>
-  <si>
-    <t>ioim_33</t>
-  </si>
-  <si>
-    <t>kerc_33</t>
-  </si>
-  <si>
-    <t>ttkj_33</t>
-  </si>
-  <si>
-    <t>pbtr_11</t>
-  </si>
-  <si>
-    <t>dmht_33</t>
-  </si>
-  <si>
-    <t>nkst_33</t>
-  </si>
-  <si>
-    <t>pulu_33</t>
-  </si>
-  <si>
-    <t>ssww_33</t>
-  </si>
-  <si>
-    <t>pnwr_11</t>
-  </si>
-  <si>
-    <t>bpht_11</t>
-  </si>
-  <si>
-    <t>msng_33</t>
-  </si>
-  <si>
-    <t>klcc_11</t>
-  </si>
-  <si>
-    <t>tjid_11</t>
-  </si>
-  <si>
-    <t>tjid_33</t>
-  </si>
-  <si>
-    <t>spid_11</t>
-  </si>
-  <si>
-    <t>spid_33</t>
-  </si>
-  <si>
-    <t>gbng_11</t>
-  </si>
-  <si>
-    <t>gbng_33</t>
-  </si>
-  <si>
-    <t>blps_33</t>
-  </si>
-  <si>
-    <t>kkup_11</t>
-  </si>
-  <si>
-    <t>tgbu_11</t>
-  </si>
-  <si>
-    <t>tgbu_33</t>
-  </si>
-  <si>
-    <t>ktih_11</t>
-  </si>
-  <si>
-    <t>psri_11</t>
-  </si>
-  <si>
-    <t>grne_33</t>
-  </si>
-  <si>
-    <t>cbjn_11</t>
-  </si>
-  <si>
-    <t>cbjn_33</t>
-  </si>
-  <si>
-    <t>mtkb_11</t>
-  </si>
-  <si>
-    <t>jmth_11</t>
-  </si>
-  <si>
-    <t>mcrs_33</t>
-  </si>
-  <si>
-    <t>pvbj_33</t>
-  </si>
-  <si>
-    <t>fctr_33</t>
-  </si>
-  <si>
-    <t>pnga_33</t>
-  </si>
-  <si>
-    <t>srbi_33</t>
-  </si>
-  <si>
-    <t>jbsk_33</t>
-  </si>
-  <si>
-    <t>shte_33</t>
-  </si>
-  <si>
-    <t>adam_33</t>
-  </si>
-  <si>
-    <t>msai_33</t>
-  </si>
-  <si>
-    <t>mery_33</t>
-  </si>
-  <si>
-    <t>tgtk_33</t>
-  </si>
-  <si>
-    <t>sdnk_33</t>
-  </si>
-  <si>
-    <t>pgad_33</t>
-  </si>
-  <si>
-    <t>jing_33</t>
-  </si>
-  <si>
-    <t>snwg_33</t>
-  </si>
-  <si>
-    <t>tine_33</t>
-  </si>
-  <si>
-    <t>cbjc_11</t>
-  </si>
-  <si>
-    <t>cbjc_33</t>
-  </si>
-  <si>
-    <t>mtre_33</t>
-  </si>
-  <si>
-    <t>mwsn_33</t>
-  </si>
-  <si>
-    <t>plgi_33</t>
-  </si>
-  <si>
-    <t>vmbr_33</t>
-  </si>
-  <si>
-    <t>icnc_33</t>
-  </si>
-  <si>
-    <t>bbcc_33</t>
-  </si>
-  <si>
-    <t>tmwt_33</t>
-  </si>
-  <si>
-    <t>ozna_33</t>
-  </si>
-  <si>
-    <t>trxc_33</t>
   </si>
   <si>
     <t>tjgs_shel_132</t>
@@ -1259,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F1E9AA-42FA-48CE-9C0D-6753CE8DE448}">
-  <dimension ref="A1:C687"/>
+  <dimension ref="A1:C607"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C135" sqref="C135"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F184" sqref="F184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1274,7 +1040,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>266</v>
+        <v>188</v>
       </c>
       <c r="B1" s="1">
         <v>2024</v>
@@ -1807,7 +1573,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="4" t="s">
-        <v>265</v>
+        <v>187</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>160</v>
@@ -2388,7 +2154,7 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="3" t="s">
-        <v>267</v>
+        <v>189</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>166</v>
@@ -2965,7 +2731,7 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="4" t="s">
-        <v>268</v>
+        <v>190</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>171</v>
@@ -3007,561 +2773,403 @@
         <v>171</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
-      <c r="A178" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B178" s="4"/>
-      <c r="C178" s="4"/>
-    </row>
-    <row r="179" spans="1:3">
-      <c r="A179" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
-      <c r="A180" s="5" t="s">
-        <v>189</v>
-      </c>
+    <row r="178" spans="1:3" s="7" customFormat="1">
+      <c r="A178"/>
+      <c r="B178"/>
+      <c r="C178"/>
+    </row>
+    <row r="179" spans="1:3" s="7" customFormat="1">
+      <c r="A179"/>
+      <c r="B179"/>
+      <c r="C179"/>
+    </row>
+    <row r="180" spans="1:3" s="7" customFormat="1">
+      <c r="A180"/>
       <c r="B180"/>
       <c r="C180"/>
     </row>
-    <row r="181" spans="1:3">
-      <c r="A181" s="5" t="s">
-        <v>190</v>
-      </c>
+    <row r="181" spans="1:3" s="7" customFormat="1">
+      <c r="A181"/>
       <c r="B181"/>
       <c r="C181"/>
     </row>
-    <row r="182" spans="1:3">
-      <c r="A182" s="5" t="s">
-        <v>191</v>
-      </c>
+    <row r="182" spans="1:3" s="7" customFormat="1">
+      <c r="A182"/>
       <c r="B182"/>
       <c r="C182"/>
     </row>
-    <row r="183" spans="1:3">
-      <c r="A183" s="5" t="s">
-        <v>192</v>
-      </c>
+    <row r="183" spans="1:3" s="7" customFormat="1">
+      <c r="A183"/>
       <c r="B183"/>
       <c r="C183"/>
     </row>
-    <row r="184" spans="1:3">
-      <c r="A184" s="5" t="s">
-        <v>193</v>
-      </c>
+    <row r="184" spans="1:3" s="7" customFormat="1">
+      <c r="A184"/>
       <c r="B184"/>
       <c r="C184"/>
     </row>
-    <row r="185" spans="1:3">
-      <c r="A185" s="5" t="s">
-        <v>194</v>
-      </c>
+    <row r="185" spans="1:3" s="7" customFormat="1">
+      <c r="A185"/>
       <c r="B185"/>
       <c r="C185"/>
     </row>
     <row r="186" spans="1:3">
-      <c r="A186" s="5" t="s">
-        <v>195</v>
-      </c>
+      <c r="A186"/>
       <c r="B186"/>
       <c r="C186"/>
     </row>
     <row r="187" spans="1:3">
-      <c r="A187" s="5" t="s">
-        <v>196</v>
-      </c>
+      <c r="A187"/>
       <c r="B187"/>
       <c r="C187"/>
     </row>
     <row r="188" spans="1:3">
-      <c r="A188" s="5" t="s">
-        <v>197</v>
-      </c>
+      <c r="A188"/>
       <c r="B188"/>
       <c r="C188"/>
     </row>
     <row r="189" spans="1:3">
-      <c r="A189" s="5" t="s">
-        <v>198</v>
-      </c>
+      <c r="A189"/>
       <c r="B189"/>
       <c r="C189"/>
     </row>
     <row r="190" spans="1:3">
-      <c r="A190" s="5" t="s">
-        <v>199</v>
-      </c>
+      <c r="A190"/>
       <c r="B190"/>
       <c r="C190"/>
     </row>
     <row r="191" spans="1:3">
-      <c r="A191" s="5" t="s">
-        <v>200</v>
-      </c>
+      <c r="A191"/>
       <c r="B191"/>
       <c r="C191"/>
     </row>
     <row r="192" spans="1:3">
-      <c r="A192" s="5" t="s">
-        <v>201</v>
-      </c>
+      <c r="A192"/>
       <c r="B192"/>
       <c r="C192"/>
     </row>
     <row r="193" spans="1:3">
-      <c r="A193" s="5" t="s">
-        <v>202</v>
-      </c>
+      <c r="A193"/>
       <c r="B193"/>
       <c r="C193"/>
     </row>
-    <row r="194" spans="1:3">
-      <c r="A194" s="5" t="s">
-        <v>203</v>
-      </c>
+    <row r="194" spans="1:3" s="7" customFormat="1">
+      <c r="A194"/>
       <c r="B194"/>
       <c r="C194"/>
     </row>
-    <row r="195" spans="1:3">
-      <c r="A195" s="5" t="s">
-        <v>204</v>
-      </c>
+    <row r="195" spans="1:3" s="7" customFormat="1">
+      <c r="A195"/>
       <c r="B195"/>
       <c r="C195"/>
     </row>
     <row r="196" spans="1:3">
-      <c r="A196" s="5" t="s">
-        <v>205</v>
-      </c>
+      <c r="A196"/>
       <c r="B196"/>
       <c r="C196"/>
     </row>
     <row r="197" spans="1:3">
-      <c r="A197" s="5" t="s">
-        <v>206</v>
-      </c>
+      <c r="A197"/>
       <c r="B197"/>
       <c r="C197"/>
     </row>
     <row r="198" spans="1:3">
-      <c r="A198" s="5" t="s">
-        <v>207</v>
-      </c>
+      <c r="A198"/>
       <c r="B198"/>
       <c r="C198"/>
     </row>
     <row r="199" spans="1:3">
-      <c r="A199" s="5" t="s">
-        <v>208</v>
-      </c>
+      <c r="A199"/>
       <c r="B199"/>
       <c r="C199"/>
     </row>
     <row r="200" spans="1:3">
-      <c r="A200" s="5" t="s">
-        <v>209</v>
-      </c>
+      <c r="A200"/>
       <c r="B200"/>
       <c r="C200"/>
     </row>
     <row r="201" spans="1:3">
-      <c r="A201" s="5" t="s">
-        <v>210</v>
-      </c>
+      <c r="A201"/>
       <c r="B201"/>
       <c r="C201"/>
     </row>
-    <row r="202" spans="1:3" s="7" customFormat="1">
-      <c r="A202" s="5" t="s">
-        <v>211</v>
-      </c>
+    <row r="202" spans="1:3">
+      <c r="A202"/>
       <c r="B202"/>
       <c r="C202"/>
     </row>
     <row r="203" spans="1:3">
-      <c r="A203" s="5" t="s">
-        <v>212</v>
-      </c>
+      <c r="A203"/>
       <c r="B203"/>
       <c r="C203"/>
     </row>
     <row r="204" spans="1:3">
-      <c r="A204" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="A204"/>
       <c r="B204"/>
       <c r="C204"/>
     </row>
     <row r="205" spans="1:3">
-      <c r="A205" s="5" t="s">
-        <v>214</v>
-      </c>
+      <c r="A205"/>
       <c r="B205"/>
       <c r="C205"/>
     </row>
     <row r="206" spans="1:3">
-      <c r="A206" s="5" t="s">
-        <v>215</v>
-      </c>
+      <c r="A206"/>
       <c r="B206"/>
       <c r="C206"/>
     </row>
     <row r="207" spans="1:3">
-      <c r="A207" s="5" t="s">
-        <v>216</v>
-      </c>
+      <c r="A207"/>
       <c r="B207"/>
       <c r="C207"/>
     </row>
     <row r="208" spans="1:3">
-      <c r="A208" s="5" t="s">
-        <v>217</v>
-      </c>
+      <c r="A208"/>
       <c r="B208"/>
       <c r="C208"/>
     </row>
     <row r="209" spans="1:3">
-      <c r="A209" s="5" t="s">
-        <v>218</v>
-      </c>
+      <c r="A209"/>
       <c r="B209"/>
       <c r="C209"/>
     </row>
     <row r="210" spans="1:3">
-      <c r="A210" s="5" t="s">
-        <v>187</v>
-      </c>
+      <c r="A210"/>
       <c r="B210"/>
       <c r="C210"/>
     </row>
     <row r="211" spans="1:3">
-      <c r="A211" s="5" t="s">
-        <v>219</v>
-      </c>
+      <c r="A211"/>
       <c r="B211"/>
       <c r="C211"/>
     </row>
     <row r="212" spans="1:3">
-      <c r="A212" s="5" t="s">
-        <v>220</v>
-      </c>
+      <c r="A212"/>
       <c r="B212"/>
       <c r="C212"/>
     </row>
     <row r="213" spans="1:3">
-      <c r="A213" s="5" t="s">
-        <v>221</v>
-      </c>
+      <c r="A213"/>
       <c r="B213"/>
       <c r="C213"/>
     </row>
     <row r="214" spans="1:3">
-      <c r="A214" s="5" t="s">
-        <v>222</v>
-      </c>
+      <c r="A214"/>
       <c r="B214"/>
       <c r="C214"/>
     </row>
     <row r="215" spans="1:3">
-      <c r="A215" s="5" t="s">
-        <v>223</v>
-      </c>
+      <c r="A215"/>
       <c r="B215"/>
       <c r="C215"/>
     </row>
     <row r="216" spans="1:3">
-      <c r="A216" s="5" t="s">
-        <v>224</v>
-      </c>
+      <c r="A216"/>
       <c r="B216"/>
       <c r="C216"/>
     </row>
     <row r="217" spans="1:3">
-      <c r="A217" s="5" t="s">
-        <v>225</v>
-      </c>
+      <c r="A217"/>
       <c r="B217"/>
       <c r="C217"/>
     </row>
     <row r="218" spans="1:3">
-      <c r="A218" s="5" t="s">
-        <v>226</v>
-      </c>
+      <c r="A218"/>
       <c r="B218"/>
       <c r="C218"/>
     </row>
     <row r="219" spans="1:3">
-      <c r="A219" s="5" t="s">
-        <v>227</v>
-      </c>
+      <c r="A219"/>
       <c r="B219"/>
       <c r="C219"/>
     </row>
     <row r="220" spans="1:3">
-      <c r="A220" s="5" t="s">
-        <v>228</v>
-      </c>
+      <c r="A220"/>
       <c r="B220"/>
       <c r="C220"/>
     </row>
     <row r="221" spans="1:3">
-      <c r="A221" s="5" t="s">
-        <v>229</v>
-      </c>
+      <c r="A221"/>
       <c r="B221"/>
       <c r="C221"/>
     </row>
-    <row r="222" spans="1:3">
-      <c r="A222" s="5" t="s">
-        <v>230</v>
-      </c>
+    <row r="222" spans="1:3" s="7" customFormat="1">
+      <c r="A222"/>
       <c r="B222"/>
       <c r="C222"/>
     </row>
-    <row r="223" spans="1:3">
-      <c r="A223" s="5" t="s">
-        <v>231</v>
-      </c>
+    <row r="223" spans="1:3" s="7" customFormat="1">
+      <c r="A223"/>
       <c r="B223"/>
       <c r="C223"/>
     </row>
-    <row r="224" spans="1:3">
-      <c r="A224" s="5" t="s">
-        <v>232</v>
-      </c>
+    <row r="224" spans="1:3" s="7" customFormat="1">
+      <c r="A224"/>
       <c r="B224"/>
       <c r="C224"/>
     </row>
-    <row r="225" spans="1:3">
-      <c r="A225" s="5" t="s">
-        <v>233</v>
-      </c>
+    <row r="225" spans="1:3" s="7" customFormat="1">
+      <c r="A225"/>
       <c r="B225"/>
       <c r="C225"/>
     </row>
-    <row r="226" spans="1:3">
-      <c r="A226" s="5" t="s">
-        <v>234</v>
-      </c>
+    <row r="226" spans="1:3" s="7" customFormat="1">
+      <c r="A226"/>
       <c r="B226"/>
       <c r="C226"/>
     </row>
-    <row r="227" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A227" s="5" t="s">
-        <v>235</v>
-      </c>
+    <row r="227" spans="1:3" s="7" customFormat="1">
+      <c r="A227"/>
       <c r="B227"/>
       <c r="C227"/>
     </row>
-    <row r="228" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A228" s="5" t="s">
-        <v>236</v>
-      </c>
+    <row r="228" spans="1:3">
+      <c r="A228"/>
       <c r="B228"/>
       <c r="C228"/>
     </row>
-    <row r="229" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A229" s="5" t="s">
-        <v>237</v>
-      </c>
+    <row r="229" spans="1:3">
+      <c r="A229"/>
       <c r="B229"/>
       <c r="C229"/>
     </row>
-    <row r="230" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A230" s="5" t="s">
-        <v>238</v>
-      </c>
+    <row r="230" spans="1:3">
+      <c r="A230"/>
       <c r="B230"/>
       <c r="C230"/>
     </row>
-    <row r="231" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A231" s="5" t="s">
-        <v>239</v>
-      </c>
+    <row r="231" spans="1:3">
+      <c r="A231"/>
       <c r="B231"/>
       <c r="C231"/>
     </row>
-    <row r="232" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A232" s="5" t="s">
-        <v>240</v>
-      </c>
+    <row r="232" spans="1:3">
+      <c r="A232"/>
       <c r="B232"/>
       <c r="C232"/>
     </row>
-    <row r="233" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A233" s="5" t="s">
-        <v>241</v>
-      </c>
+    <row r="233" spans="1:3">
+      <c r="A233"/>
       <c r="B233"/>
       <c r="C233"/>
     </row>
-    <row r="234" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A234" s="5" t="s">
-        <v>242</v>
-      </c>
+    <row r="234" spans="1:3">
+      <c r="A234"/>
       <c r="B234"/>
       <c r="C234"/>
     </row>
-    <row r="235" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A235" s="5" t="s">
-        <v>243</v>
-      </c>
+    <row r="235" spans="1:3">
+      <c r="A235"/>
       <c r="B235"/>
       <c r="C235"/>
     </row>
-    <row r="236" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A236" s="5" t="s">
-        <v>244</v>
-      </c>
+    <row r="236" spans="1:3">
+      <c r="A236"/>
       <c r="B236"/>
       <c r="C236"/>
     </row>
-    <row r="237" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A237" s="5" t="s">
-        <v>245</v>
-      </c>
+    <row r="237" spans="1:3">
+      <c r="A237"/>
       <c r="B237"/>
       <c r="C237"/>
     </row>
-    <row r="238" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A238" s="5" t="s">
-        <v>246</v>
-      </c>
+    <row r="238" spans="1:3">
+      <c r="A238"/>
       <c r="B238"/>
       <c r="C238"/>
     </row>
-    <row r="239" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A239" s="5" t="s">
-        <v>247</v>
-      </c>
+    <row r="239" spans="1:3">
+      <c r="A239"/>
       <c r="B239"/>
       <c r="C239"/>
     </row>
-    <row r="240" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A240" s="5" t="s">
-        <v>248</v>
-      </c>
+    <row r="240" spans="1:3">
+      <c r="A240"/>
       <c r="B240"/>
       <c r="C240"/>
     </row>
-    <row r="241" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A241" s="5" t="s">
-        <v>249</v>
-      </c>
+    <row r="241" spans="1:3">
+      <c r="A241"/>
       <c r="B241"/>
       <c r="C241"/>
     </row>
-    <row r="242" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A242" s="5" t="s">
-        <v>250</v>
-      </c>
+    <row r="242" spans="1:3">
+      <c r="A242"/>
       <c r="B242"/>
       <c r="C242"/>
     </row>
-    <row r="243" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A243" s="5" t="s">
-        <v>251</v>
-      </c>
+    <row r="243" spans="1:3">
+      <c r="A243"/>
       <c r="B243"/>
       <c r="C243"/>
     </row>
-    <row r="244" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A244" s="5" t="s">
-        <v>252</v>
-      </c>
+    <row r="244" spans="1:3">
+      <c r="A244"/>
       <c r="B244"/>
       <c r="C244"/>
     </row>
-    <row r="245" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A245" s="5" t="s">
-        <v>253</v>
-      </c>
+    <row r="245" spans="1:3">
+      <c r="A245"/>
       <c r="B245"/>
       <c r="C245"/>
     </row>
-    <row r="246" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A246" s="5" t="s">
-        <v>254</v>
-      </c>
+    <row r="246" spans="1:3">
+      <c r="A246"/>
       <c r="B246"/>
       <c r="C246"/>
     </row>
-    <row r="247" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A247" s="5" t="s">
-        <v>255</v>
-      </c>
+    <row r="247" spans="1:3">
+      <c r="A247"/>
       <c r="B247"/>
       <c r="C247"/>
     </row>
     <row r="248" spans="1:3">
-      <c r="A248" s="5" t="s">
-        <v>256</v>
-      </c>
+      <c r="A248"/>
       <c r="B248"/>
       <c r="C248"/>
     </row>
     <row r="249" spans="1:3">
-      <c r="A249" s="5" t="s">
-        <v>257</v>
-      </c>
+      <c r="A249"/>
       <c r="B249"/>
       <c r="C249"/>
     </row>
     <row r="250" spans="1:3">
-      <c r="A250" s="5" t="s">
-        <v>258</v>
-      </c>
+      <c r="A250"/>
       <c r="B250"/>
       <c r="C250"/>
     </row>
     <row r="251" spans="1:3">
-      <c r="A251" s="5" t="s">
-        <v>259</v>
-      </c>
+      <c r="A251"/>
       <c r="B251"/>
       <c r="C251"/>
     </row>
     <row r="252" spans="1:3">
-      <c r="A252" s="5" t="s">
-        <v>259</v>
-      </c>
+      <c r="A252"/>
       <c r="B252"/>
       <c r="C252"/>
     </row>
     <row r="253" spans="1:3">
-      <c r="A253" s="5" t="s">
-        <v>260</v>
-      </c>
+      <c r="A253"/>
       <c r="B253"/>
       <c r="C253"/>
     </row>
     <row r="254" spans="1:3">
-      <c r="A254" s="5" t="s">
-        <v>261</v>
-      </c>
+      <c r="A254"/>
       <c r="B254"/>
       <c r="C254"/>
     </row>
     <row r="255" spans="1:3">
-      <c r="A255" s="5" t="s">
-        <v>262</v>
-      </c>
+      <c r="A255"/>
       <c r="B255"/>
       <c r="C255"/>
     </row>
-    <row r="256" spans="1:3" s="7" customFormat="1">
-      <c r="A256" s="5" t="s">
-        <v>263</v>
-      </c>
+    <row r="256" spans="1:3">
+      <c r="A256"/>
       <c r="B256"/>
       <c r="C256"/>
     </row>
     <row r="257" spans="1:3" s="7" customFormat="1">
-      <c r="A257" s="5" t="s">
-        <v>264</v>
-      </c>
+      <c r="A257"/>
       <c r="B257"/>
       <c r="C257"/>
     </row>
@@ -3570,37 +3178,37 @@
       <c r="B258"/>
       <c r="C258"/>
     </row>
-    <row r="259" spans="1:3" s="7" customFormat="1">
+    <row r="259" spans="1:3">
       <c r="A259"/>
       <c r="B259"/>
       <c r="C259"/>
     </row>
-    <row r="260" spans="1:3" s="7" customFormat="1">
+    <row r="260" spans="1:3">
       <c r="A260"/>
       <c r="B260"/>
       <c r="C260"/>
     </row>
-    <row r="261" spans="1:3" s="7" customFormat="1">
+    <row r="261" spans="1:3">
       <c r="A261"/>
       <c r="B261"/>
       <c r="C261"/>
     </row>
-    <row r="262" spans="1:3" s="7" customFormat="1">
+    <row r="262" spans="1:3">
       <c r="A262"/>
       <c r="B262"/>
       <c r="C262"/>
     </row>
-    <row r="263" spans="1:3" s="7" customFormat="1">
+    <row r="263" spans="1:3">
       <c r="A263"/>
       <c r="B263"/>
       <c r="C263"/>
     </row>
-    <row r="264" spans="1:3" s="7" customFormat="1">
+    <row r="264" spans="1:3">
       <c r="A264"/>
       <c r="B264"/>
       <c r="C264"/>
     </row>
-    <row r="265" spans="1:3" s="7" customFormat="1">
+    <row r="265" spans="1:3">
       <c r="A265"/>
       <c r="B265"/>
       <c r="C265"/>
@@ -3610,47 +3218,47 @@
       <c r="B266"/>
       <c r="C266"/>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:3" ht="14.5" customHeight="1">
       <c r="A267"/>
       <c r="B267"/>
       <c r="C267"/>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:3" ht="14.5" customHeight="1">
       <c r="A268"/>
       <c r="B268"/>
       <c r="C268"/>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:3" ht="14.5" customHeight="1">
       <c r="A269"/>
       <c r="B269"/>
       <c r="C269"/>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:3" ht="14.5" customHeight="1">
       <c r="A270"/>
       <c r="B270"/>
       <c r="C270"/>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:3" ht="14.5" customHeight="1">
       <c r="A271"/>
       <c r="B271"/>
       <c r="C271"/>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:3" ht="14.5" customHeight="1">
       <c r="A272"/>
       <c r="B272"/>
       <c r="C272"/>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:3" ht="14.5" customHeight="1">
       <c r="A273"/>
       <c r="B273"/>
       <c r="C273"/>
     </row>
-    <row r="274" spans="1:3" s="7" customFormat="1">
+    <row r="274" spans="1:3" ht="14.5" customHeight="1">
       <c r="A274"/>
       <c r="B274"/>
       <c r="C274"/>
     </row>
-    <row r="275" spans="1:3" s="7" customFormat="1">
+    <row r="275" spans="1:3">
       <c r="A275"/>
       <c r="B275"/>
       <c r="C275"/>
@@ -3720,67 +3328,67 @@
       <c r="B288"/>
       <c r="C288"/>
     </row>
-    <row r="289" spans="1:3">
+    <row r="289" spans="1:3" s="7" customFormat="1">
       <c r="A289"/>
       <c r="B289"/>
       <c r="C289"/>
     </row>
-    <row r="290" spans="1:3">
+    <row r="290" spans="1:3" s="7" customFormat="1">
       <c r="A290"/>
       <c r="B290"/>
       <c r="C290"/>
     </row>
-    <row r="291" spans="1:3">
+    <row r="291" spans="1:3" s="7" customFormat="1">
       <c r="A291"/>
       <c r="B291"/>
       <c r="C291"/>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" spans="1:3" s="7" customFormat="1">
       <c r="A292"/>
       <c r="B292"/>
       <c r="C292"/>
     </row>
-    <row r="293" spans="1:3">
+    <row r="293" spans="1:3" s="7" customFormat="1">
       <c r="A293"/>
       <c r="B293"/>
       <c r="C293"/>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" spans="1:3" s="7" customFormat="1">
       <c r="A294"/>
       <c r="B294"/>
       <c r="C294"/>
     </row>
-    <row r="295" spans="1:3">
+    <row r="295" spans="1:3" s="7" customFormat="1">
       <c r="A295"/>
       <c r="B295"/>
       <c r="C295"/>
     </row>
-    <row r="296" spans="1:3">
+    <row r="296" spans="1:3" s="7" customFormat="1">
       <c r="A296"/>
       <c r="B296"/>
       <c r="C296"/>
     </row>
-    <row r="297" spans="1:3">
+    <row r="297" spans="1:3" s="7" customFormat="1">
       <c r="A297"/>
       <c r="B297"/>
       <c r="C297"/>
     </row>
-    <row r="298" spans="1:3">
+    <row r="298" spans="1:3" s="7" customFormat="1">
       <c r="A298"/>
       <c r="B298"/>
       <c r="C298"/>
     </row>
-    <row r="299" spans="1:3">
+    <row r="299" spans="1:3" s="7" customFormat="1">
       <c r="A299"/>
       <c r="B299"/>
       <c r="C299"/>
     </row>
-    <row r="300" spans="1:3">
+    <row r="300" spans="1:3" s="7" customFormat="1">
       <c r="A300"/>
       <c r="B300"/>
       <c r="C300"/>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" spans="1:3" s="7" customFormat="1">
       <c r="A301"/>
       <c r="B301"/>
       <c r="C301"/>
@@ -3795,22 +3403,22 @@
       <c r="B303"/>
       <c r="C303"/>
     </row>
-    <row r="304" spans="1:3" s="7" customFormat="1">
+    <row r="304" spans="1:3">
       <c r="A304"/>
       <c r="B304"/>
       <c r="C304"/>
     </row>
-    <row r="305" spans="1:3" s="7" customFormat="1">
+    <row r="305" spans="1:3">
       <c r="A305"/>
       <c r="B305"/>
       <c r="C305"/>
     </row>
-    <row r="306" spans="1:3" s="7" customFormat="1">
+    <row r="306" spans="1:3">
       <c r="A306"/>
       <c r="B306"/>
       <c r="C306"/>
     </row>
-    <row r="307" spans="1:3" s="7" customFormat="1">
+    <row r="307" spans="1:3">
       <c r="A307"/>
       <c r="B307"/>
       <c r="C307"/>
@@ -3960,12 +3568,12 @@
       <c r="B336"/>
       <c r="C336"/>
     </row>
-    <row r="337" spans="1:3" s="7" customFormat="1">
+    <row r="337" spans="1:3">
       <c r="A337"/>
       <c r="B337"/>
       <c r="C337"/>
     </row>
-    <row r="338" spans="1:3" s="7" customFormat="1">
+    <row r="338" spans="1:3">
       <c r="A338"/>
       <c r="B338"/>
       <c r="C338"/>
@@ -4010,42 +3618,42 @@
       <c r="B346"/>
       <c r="C346"/>
     </row>
-    <row r="347" spans="1:3" ht="14.5" customHeight="1">
+    <row r="347" spans="1:3">
       <c r="A347"/>
       <c r="B347"/>
       <c r="C347"/>
     </row>
-    <row r="348" spans="1:3" ht="14.5" customHeight="1">
+    <row r="348" spans="1:3">
       <c r="A348"/>
       <c r="B348"/>
       <c r="C348"/>
     </row>
-    <row r="349" spans="1:3" ht="14.5" customHeight="1">
+    <row r="349" spans="1:3">
       <c r="A349"/>
       <c r="B349"/>
       <c r="C349"/>
     </row>
-    <row r="350" spans="1:3" ht="14.5" customHeight="1">
+    <row r="350" spans="1:3">
       <c r="A350"/>
       <c r="B350"/>
       <c r="C350"/>
     </row>
-    <row r="351" spans="1:3" ht="14.5" customHeight="1">
+    <row r="351" spans="1:3">
       <c r="A351"/>
       <c r="B351"/>
       <c r="C351"/>
     </row>
-    <row r="352" spans="1:3" ht="14.5" customHeight="1">
+    <row r="352" spans="1:3">
       <c r="A352"/>
       <c r="B352"/>
       <c r="C352"/>
     </row>
-    <row r="353" spans="1:3" ht="14.5" customHeight="1">
+    <row r="353" spans="1:3" s="7" customFormat="1">
       <c r="A353"/>
       <c r="B353"/>
       <c r="C353"/>
     </row>
-    <row r="354" spans="1:3" ht="14.5" customHeight="1">
+    <row r="354" spans="1:3">
       <c r="A354"/>
       <c r="B354"/>
       <c r="C354"/>
@@ -4085,7 +3693,7 @@
       <c r="B361"/>
       <c r="C361"/>
     </row>
-    <row r="362" spans="1:3">
+    <row r="362" spans="1:3" s="7" customFormat="1">
       <c r="A362"/>
       <c r="B362"/>
       <c r="C362"/>
@@ -4120,77 +3728,77 @@
       <c r="B368"/>
       <c r="C368"/>
     </row>
-    <row r="369" spans="1:3" s="7" customFormat="1">
+    <row r="369" spans="1:3">
       <c r="A369"/>
       <c r="B369"/>
       <c r="C369"/>
     </row>
-    <row r="370" spans="1:3" s="7" customFormat="1">
+    <row r="370" spans="1:3">
       <c r="A370"/>
       <c r="B370"/>
       <c r="C370"/>
     </row>
-    <row r="371" spans="1:3" s="7" customFormat="1">
+    <row r="371" spans="1:3">
       <c r="A371"/>
       <c r="B371"/>
       <c r="C371"/>
     </row>
-    <row r="372" spans="1:3" s="7" customFormat="1">
+    <row r="372" spans="1:3">
       <c r="A372"/>
       <c r="B372"/>
       <c r="C372"/>
     </row>
-    <row r="373" spans="1:3" s="7" customFormat="1">
+    <row r="373" spans="1:3">
       <c r="A373"/>
       <c r="B373"/>
       <c r="C373"/>
     </row>
-    <row r="374" spans="1:3" s="7" customFormat="1">
+    <row r="374" spans="1:3">
       <c r="A374"/>
       <c r="B374"/>
       <c r="C374"/>
     </row>
-    <row r="375" spans="1:3" s="7" customFormat="1">
+    <row r="375" spans="1:3">
       <c r="A375"/>
       <c r="B375"/>
       <c r="C375"/>
     </row>
-    <row r="376" spans="1:3" s="7" customFormat="1">
+    <row r="376" spans="1:3">
       <c r="A376"/>
       <c r="B376"/>
       <c r="C376"/>
     </row>
-    <row r="377" spans="1:3" s="7" customFormat="1">
+    <row r="377" spans="1:3">
       <c r="A377"/>
       <c r="B377"/>
       <c r="C377"/>
     </row>
-    <row r="378" spans="1:3" s="7" customFormat="1">
+    <row r="378" spans="1:3">
       <c r="A378"/>
       <c r="B378"/>
       <c r="C378"/>
     </row>
-    <row r="379" spans="1:3" s="7" customFormat="1">
+    <row r="379" spans="1:3">
       <c r="A379"/>
       <c r="B379"/>
       <c r="C379"/>
     </row>
-    <row r="380" spans="1:3" s="7" customFormat="1">
+    <row r="380" spans="1:3">
       <c r="A380"/>
       <c r="B380"/>
       <c r="C380"/>
     </row>
-    <row r="381" spans="1:3" s="7" customFormat="1">
+    <row r="381" spans="1:3">
       <c r="A381"/>
       <c r="B381"/>
       <c r="C381"/>
     </row>
-    <row r="382" spans="1:3" s="7" customFormat="1">
+    <row r="382" spans="1:3">
       <c r="A382"/>
       <c r="B382"/>
       <c r="C382"/>
     </row>
-    <row r="383" spans="1:3" s="7" customFormat="1">
+    <row r="383" spans="1:3">
       <c r="A383"/>
       <c r="B383"/>
       <c r="C383"/>
@@ -4215,52 +3823,52 @@
       <c r="B387"/>
       <c r="C387"/>
     </row>
-    <row r="388" spans="1:3">
+    <row r="388" spans="1:3" s="7" customFormat="1">
       <c r="A388"/>
       <c r="B388"/>
       <c r="C388"/>
     </row>
-    <row r="389" spans="1:3">
+    <row r="389" spans="1:3" s="7" customFormat="1">
       <c r="A389"/>
       <c r="B389"/>
       <c r="C389"/>
     </row>
-    <row r="390" spans="1:3">
+    <row r="390" spans="1:3" s="7" customFormat="1">
       <c r="A390"/>
       <c r="B390"/>
       <c r="C390"/>
     </row>
-    <row r="391" spans="1:3">
+    <row r="391" spans="1:3" s="7" customFormat="1">
       <c r="A391"/>
       <c r="B391"/>
       <c r="C391"/>
     </row>
-    <row r="392" spans="1:3">
+    <row r="392" spans="1:3" s="7" customFormat="1">
       <c r="A392"/>
       <c r="B392"/>
       <c r="C392"/>
     </row>
-    <row r="393" spans="1:3">
+    <row r="393" spans="1:3" s="7" customFormat="1">
       <c r="A393"/>
       <c r="B393"/>
       <c r="C393"/>
     </row>
-    <row r="394" spans="1:3">
+    <row r="394" spans="1:3" s="7" customFormat="1">
       <c r="A394"/>
       <c r="B394"/>
       <c r="C394"/>
     </row>
-    <row r="395" spans="1:3">
+    <row r="395" spans="1:3" s="7" customFormat="1">
       <c r="A395"/>
       <c r="B395"/>
       <c r="C395"/>
     </row>
-    <row r="396" spans="1:3">
+    <row r="396" spans="1:3" s="7" customFormat="1">
       <c r="A396"/>
       <c r="B396"/>
       <c r="C396"/>
     </row>
-    <row r="397" spans="1:3">
+    <row r="397" spans="1:3" s="7" customFormat="1">
       <c r="A397"/>
       <c r="B397"/>
       <c r="C397"/>
@@ -4435,62 +4043,62 @@
       <c r="B431"/>
       <c r="C431"/>
     </row>
-    <row r="432" spans="1:3">
+    <row r="432" spans="1:3" ht="14.5" customHeight="1">
       <c r="A432"/>
       <c r="B432"/>
       <c r="C432"/>
     </row>
-    <row r="433" spans="1:3" s="7" customFormat="1">
+    <row r="433" spans="1:3" ht="14.5" customHeight="1">
       <c r="A433"/>
       <c r="B433"/>
       <c r="C433"/>
     </row>
-    <row r="434" spans="1:3">
+    <row r="434" spans="1:3" ht="14.5" customHeight="1">
       <c r="A434"/>
       <c r="B434"/>
       <c r="C434"/>
     </row>
-    <row r="435" spans="1:3">
+    <row r="435" spans="1:3" ht="14.5" customHeight="1">
       <c r="A435"/>
       <c r="B435"/>
       <c r="C435"/>
     </row>
-    <row r="436" spans="1:3">
+    <row r="436" spans="1:3" ht="14.5" customHeight="1">
       <c r="A436"/>
       <c r="B436"/>
       <c r="C436"/>
     </row>
-    <row r="437" spans="1:3">
+    <row r="437" spans="1:3" ht="14.5" customHeight="1">
       <c r="A437"/>
       <c r="B437"/>
       <c r="C437"/>
     </row>
-    <row r="438" spans="1:3">
+    <row r="438" spans="1:3" ht="14.5" customHeight="1">
       <c r="A438"/>
       <c r="B438"/>
       <c r="C438"/>
     </row>
-    <row r="439" spans="1:3">
+    <row r="439" spans="1:3" ht="14.5" customHeight="1">
       <c r="A439"/>
       <c r="B439"/>
       <c r="C439"/>
     </row>
-    <row r="440" spans="1:3">
+    <row r="440" spans="1:3" ht="14.5" customHeight="1">
       <c r="A440"/>
       <c r="B440"/>
       <c r="C440"/>
     </row>
-    <row r="441" spans="1:3">
+    <row r="441" spans="1:3" ht="14.5" customHeight="1">
       <c r="A441"/>
       <c r="B441"/>
       <c r="C441"/>
     </row>
-    <row r="442" spans="1:3" s="7" customFormat="1">
+    <row r="442" spans="1:3" ht="14.5" customHeight="1">
       <c r="A442"/>
       <c r="B442"/>
       <c r="C442"/>
     </row>
-    <row r="443" spans="1:3">
+    <row r="443" spans="1:3" ht="14.5" customHeight="1">
       <c r="A443"/>
       <c r="B443"/>
       <c r="C443"/>
@@ -4610,402 +4218,402 @@
       <c r="B466"/>
       <c r="C466"/>
     </row>
-    <row r="467" spans="1:3">
+    <row r="467" spans="1:3" s="6" customFormat="1">
       <c r="A467"/>
       <c r="B467"/>
       <c r="C467"/>
     </row>
-    <row r="468" spans="1:3" s="7" customFormat="1">
+    <row r="468" spans="1:3" s="6" customFormat="1">
       <c r="A468"/>
       <c r="B468"/>
       <c r="C468"/>
     </row>
-    <row r="469" spans="1:3" s="7" customFormat="1">
+    <row r="469" spans="1:3" s="6" customFormat="1">
       <c r="A469"/>
       <c r="B469"/>
       <c r="C469"/>
     </row>
-    <row r="470" spans="1:3" s="7" customFormat="1">
+    <row r="470" spans="1:3" s="6" customFormat="1">
       <c r="A470"/>
       <c r="B470"/>
       <c r="C470"/>
     </row>
-    <row r="471" spans="1:3" s="7" customFormat="1">
+    <row r="471" spans="1:3" s="6" customFormat="1">
       <c r="A471"/>
       <c r="B471"/>
       <c r="C471"/>
     </row>
-    <row r="472" spans="1:3" s="7" customFormat="1">
+    <row r="472" spans="1:3" s="6" customFormat="1">
       <c r="A472"/>
       <c r="B472"/>
       <c r="C472"/>
     </row>
-    <row r="473" spans="1:3" s="7" customFormat="1">
+    <row r="473" spans="1:3" s="6" customFormat="1">
       <c r="A473"/>
       <c r="B473"/>
       <c r="C473"/>
     </row>
-    <row r="474" spans="1:3" s="7" customFormat="1">
+    <row r="474" spans="1:3" s="6" customFormat="1">
       <c r="A474"/>
       <c r="B474"/>
       <c r="C474"/>
     </row>
-    <row r="475" spans="1:3" s="7" customFormat="1">
+    <row r="475" spans="1:3" s="6" customFormat="1">
       <c r="A475"/>
       <c r="B475"/>
       <c r="C475"/>
     </row>
-    <row r="476" spans="1:3" s="7" customFormat="1">
+    <row r="476" spans="1:3" s="6" customFormat="1">
       <c r="A476"/>
       <c r="B476"/>
       <c r="C476"/>
     </row>
-    <row r="477" spans="1:3" s="7" customFormat="1">
+    <row r="477" spans="1:3" s="6" customFormat="1">
       <c r="A477"/>
       <c r="B477"/>
       <c r="C477"/>
     </row>
-    <row r="478" spans="1:3">
+    <row r="478" spans="1:3" s="6" customFormat="1">
       <c r="A478"/>
       <c r="B478"/>
       <c r="C478"/>
     </row>
-    <row r="479" spans="1:3">
+    <row r="479" spans="1:3" s="6" customFormat="1">
       <c r="A479"/>
       <c r="B479"/>
       <c r="C479"/>
     </row>
-    <row r="480" spans="1:3">
+    <row r="480" spans="1:3" s="6" customFormat="1">
       <c r="A480"/>
       <c r="B480"/>
       <c r="C480"/>
     </row>
-    <row r="481" spans="1:3">
+    <row r="481" spans="1:3" s="6" customFormat="1">
       <c r="A481"/>
       <c r="B481"/>
       <c r="C481"/>
     </row>
-    <row r="482" spans="1:3">
+    <row r="482" spans="1:3" s="6" customFormat="1">
       <c r="A482"/>
       <c r="B482"/>
       <c r="C482"/>
     </row>
-    <row r="483" spans="1:3">
+    <row r="483" spans="1:3" s="6" customFormat="1">
       <c r="A483"/>
       <c r="B483"/>
       <c r="C483"/>
     </row>
-    <row r="484" spans="1:3">
+    <row r="484" spans="1:3" s="6" customFormat="1">
       <c r="A484"/>
       <c r="B484"/>
       <c r="C484"/>
     </row>
-    <row r="485" spans="1:3">
+    <row r="485" spans="1:3" s="6" customFormat="1">
       <c r="A485"/>
       <c r="B485"/>
       <c r="C485"/>
     </row>
-    <row r="486" spans="1:3">
+    <row r="486" spans="1:3" s="6" customFormat="1">
       <c r="A486"/>
       <c r="B486"/>
       <c r="C486"/>
     </row>
-    <row r="487" spans="1:3">
+    <row r="487" spans="1:3" s="6" customFormat="1">
       <c r="A487"/>
       <c r="B487"/>
       <c r="C487"/>
     </row>
-    <row r="488" spans="1:3">
+    <row r="488" spans="1:3" s="6" customFormat="1">
       <c r="A488"/>
       <c r="B488"/>
       <c r="C488"/>
     </row>
-    <row r="489" spans="1:3">
+    <row r="489" spans="1:3" s="6" customFormat="1">
       <c r="A489"/>
       <c r="B489"/>
       <c r="C489"/>
     </row>
-    <row r="490" spans="1:3">
+    <row r="490" spans="1:3" s="6" customFormat="1">
       <c r="A490"/>
       <c r="B490"/>
       <c r="C490"/>
     </row>
-    <row r="491" spans="1:3">
+    <row r="491" spans="1:3" s="6" customFormat="1">
       <c r="A491"/>
       <c r="B491"/>
       <c r="C491"/>
     </row>
-    <row r="492" spans="1:3">
+    <row r="492" spans="1:3" s="6" customFormat="1">
       <c r="A492"/>
       <c r="B492"/>
       <c r="C492"/>
     </row>
-    <row r="493" spans="1:3">
+    <row r="493" spans="1:3" s="6" customFormat="1">
       <c r="A493"/>
       <c r="B493"/>
       <c r="C493"/>
     </row>
-    <row r="494" spans="1:3">
+    <row r="494" spans="1:3" s="6" customFormat="1">
       <c r="A494"/>
       <c r="B494"/>
       <c r="C494"/>
     </row>
-    <row r="495" spans="1:3">
+    <row r="495" spans="1:3" s="6" customFormat="1">
       <c r="A495"/>
       <c r="B495"/>
       <c r="C495"/>
     </row>
-    <row r="496" spans="1:3">
+    <row r="496" spans="1:3" s="6" customFormat="1">
       <c r="A496"/>
       <c r="B496"/>
       <c r="C496"/>
     </row>
-    <row r="497" spans="1:3">
+    <row r="497" spans="1:3" s="6" customFormat="1">
       <c r="A497"/>
       <c r="B497"/>
       <c r="C497"/>
     </row>
-    <row r="498" spans="1:3">
+    <row r="498" spans="1:3" s="6" customFormat="1">
       <c r="A498"/>
       <c r="B498"/>
       <c r="C498"/>
     </row>
-    <row r="499" spans="1:3">
+    <row r="499" spans="1:3" s="6" customFormat="1">
       <c r="A499"/>
       <c r="B499"/>
       <c r="C499"/>
     </row>
-    <row r="500" spans="1:3">
+    <row r="500" spans="1:3" s="6" customFormat="1">
       <c r="A500"/>
       <c r="B500"/>
       <c r="C500"/>
     </row>
-    <row r="501" spans="1:3">
+    <row r="501" spans="1:3" s="6" customFormat="1">
       <c r="A501"/>
       <c r="B501"/>
       <c r="C501"/>
     </row>
-    <row r="502" spans="1:3">
+    <row r="502" spans="1:3" s="6" customFormat="1">
       <c r="A502"/>
       <c r="B502"/>
       <c r="C502"/>
     </row>
-    <row r="503" spans="1:3">
+    <row r="503" spans="1:3" s="6" customFormat="1">
       <c r="A503"/>
       <c r="B503"/>
       <c r="C503"/>
     </row>
-    <row r="504" spans="1:3">
+    <row r="504" spans="1:3" s="6" customFormat="1">
       <c r="A504"/>
       <c r="B504"/>
       <c r="C504"/>
     </row>
-    <row r="505" spans="1:3">
+    <row r="505" spans="1:3" s="6" customFormat="1">
       <c r="A505"/>
       <c r="B505"/>
       <c r="C505"/>
     </row>
-    <row r="506" spans="1:3">
+    <row r="506" spans="1:3" s="6" customFormat="1">
       <c r="A506"/>
       <c r="B506"/>
       <c r="C506"/>
     </row>
-    <row r="507" spans="1:3">
+    <row r="507" spans="1:3" s="6" customFormat="1">
       <c r="A507"/>
       <c r="B507"/>
       <c r="C507"/>
     </row>
-    <row r="508" spans="1:3">
+    <row r="508" spans="1:3" s="6" customFormat="1">
       <c r="A508"/>
       <c r="B508"/>
       <c r="C508"/>
     </row>
-    <row r="509" spans="1:3">
+    <row r="509" spans="1:3" s="6" customFormat="1">
       <c r="A509"/>
       <c r="B509"/>
       <c r="C509"/>
     </row>
-    <row r="510" spans="1:3">
+    <row r="510" spans="1:3" s="6" customFormat="1">
       <c r="A510"/>
       <c r="B510"/>
       <c r="C510"/>
     </row>
-    <row r="511" spans="1:3">
+    <row r="511" spans="1:3" s="6" customFormat="1">
       <c r="A511"/>
       <c r="B511"/>
       <c r="C511"/>
     </row>
-    <row r="512" spans="1:3" ht="14.5" customHeight="1">
+    <row r="512" spans="1:3" s="6" customFormat="1">
       <c r="A512"/>
       <c r="B512"/>
       <c r="C512"/>
     </row>
-    <row r="513" spans="1:3" ht="14.5" customHeight="1">
+    <row r="513" spans="1:3" s="6" customFormat="1">
       <c r="A513"/>
       <c r="B513"/>
       <c r="C513"/>
     </row>
-    <row r="514" spans="1:3" ht="14.5" customHeight="1">
+    <row r="514" spans="1:3" s="6" customFormat="1">
       <c r="A514"/>
       <c r="B514"/>
       <c r="C514"/>
     </row>
-    <row r="515" spans="1:3" ht="14.5" customHeight="1">
+    <row r="515" spans="1:3" s="6" customFormat="1">
       <c r="A515"/>
       <c r="B515"/>
       <c r="C515"/>
     </row>
-    <row r="516" spans="1:3" ht="14.5" customHeight="1">
+    <row r="516" spans="1:3" s="6" customFormat="1">
       <c r="A516"/>
       <c r="B516"/>
       <c r="C516"/>
     </row>
-    <row r="517" spans="1:3" ht="14.5" customHeight="1">
+    <row r="517" spans="1:3" s="6" customFormat="1">
       <c r="A517"/>
       <c r="B517"/>
       <c r="C517"/>
     </row>
-    <row r="518" spans="1:3" ht="14.5" customHeight="1">
+    <row r="518" spans="1:3" s="6" customFormat="1">
       <c r="A518"/>
       <c r="B518"/>
       <c r="C518"/>
     </row>
-    <row r="519" spans="1:3" ht="14.5" customHeight="1">
+    <row r="519" spans="1:3" s="6" customFormat="1">
       <c r="A519"/>
       <c r="B519"/>
       <c r="C519"/>
     </row>
-    <row r="520" spans="1:3" ht="14.5" customHeight="1">
+    <row r="520" spans="1:3" s="6" customFormat="1">
       <c r="A520"/>
       <c r="B520"/>
       <c r="C520"/>
     </row>
-    <row r="521" spans="1:3" ht="14.5" customHeight="1">
+    <row r="521" spans="1:3" s="6" customFormat="1">
       <c r="A521"/>
       <c r="B521"/>
       <c r="C521"/>
     </row>
-    <row r="522" spans="1:3" ht="14.5" customHeight="1">
+    <row r="522" spans="1:3" s="6" customFormat="1">
       <c r="A522"/>
       <c r="B522"/>
       <c r="C522"/>
     </row>
-    <row r="523" spans="1:3" ht="14.5" customHeight="1">
+    <row r="523" spans="1:3" s="6" customFormat="1">
       <c r="A523"/>
       <c r="B523"/>
       <c r="C523"/>
     </row>
-    <row r="524" spans="1:3">
+    <row r="524" spans="1:3" s="6" customFormat="1">
       <c r="A524"/>
       <c r="B524"/>
       <c r="C524"/>
     </row>
-    <row r="525" spans="1:3">
+    <row r="525" spans="1:3" s="6" customFormat="1">
       <c r="A525"/>
       <c r="B525"/>
       <c r="C525"/>
     </row>
-    <row r="526" spans="1:3">
+    <row r="526" spans="1:3" s="6" customFormat="1">
       <c r="A526"/>
       <c r="B526"/>
       <c r="C526"/>
     </row>
-    <row r="527" spans="1:3">
+    <row r="527" spans="1:3" s="6" customFormat="1">
       <c r="A527"/>
       <c r="B527"/>
       <c r="C527"/>
     </row>
-    <row r="528" spans="1:3">
+    <row r="528" spans="1:3" s="6" customFormat="1">
       <c r="A528"/>
       <c r="B528"/>
       <c r="C528"/>
     </row>
-    <row r="529" spans="1:3">
+    <row r="529" spans="1:3" s="6" customFormat="1">
       <c r="A529"/>
       <c r="B529"/>
       <c r="C529"/>
     </row>
-    <row r="530" spans="1:3">
+    <row r="530" spans="1:3" s="6" customFormat="1">
       <c r="A530"/>
       <c r="B530"/>
       <c r="C530"/>
     </row>
-    <row r="531" spans="1:3">
+    <row r="531" spans="1:3" s="6" customFormat="1">
       <c r="A531"/>
       <c r="B531"/>
       <c r="C531"/>
     </row>
-    <row r="532" spans="1:3">
+    <row r="532" spans="1:3" s="6" customFormat="1">
       <c r="A532"/>
       <c r="B532"/>
       <c r="C532"/>
     </row>
-    <row r="533" spans="1:3">
+    <row r="533" spans="1:3" s="6" customFormat="1">
       <c r="A533"/>
       <c r="B533"/>
       <c r="C533"/>
     </row>
-    <row r="534" spans="1:3">
+    <row r="534" spans="1:3" s="6" customFormat="1">
       <c r="A534"/>
       <c r="B534"/>
       <c r="C534"/>
     </row>
-    <row r="535" spans="1:3">
+    <row r="535" spans="1:3" s="6" customFormat="1">
       <c r="A535"/>
       <c r="B535"/>
       <c r="C535"/>
     </row>
-    <row r="536" spans="1:3">
+    <row r="536" spans="1:3" s="6" customFormat="1">
       <c r="A536"/>
       <c r="B536"/>
       <c r="C536"/>
     </row>
-    <row r="537" spans="1:3">
+    <row r="537" spans="1:3" s="6" customFormat="1">
       <c r="A537"/>
       <c r="B537"/>
       <c r="C537"/>
     </row>
-    <row r="538" spans="1:3">
+    <row r="538" spans="1:3" s="6" customFormat="1">
       <c r="A538"/>
       <c r="B538"/>
       <c r="C538"/>
     </row>
-    <row r="539" spans="1:3">
+    <row r="539" spans="1:3" s="6" customFormat="1">
       <c r="A539"/>
       <c r="B539"/>
       <c r="C539"/>
     </row>
-    <row r="540" spans="1:3">
+    <row r="540" spans="1:3" s="6" customFormat="1">
       <c r="A540"/>
       <c r="B540"/>
       <c r="C540"/>
     </row>
-    <row r="541" spans="1:3">
+    <row r="541" spans="1:3" s="6" customFormat="1">
       <c r="A541"/>
       <c r="B541"/>
       <c r="C541"/>
     </row>
-    <row r="542" spans="1:3">
+    <row r="542" spans="1:3" s="6" customFormat="1">
       <c r="A542"/>
       <c r="B542"/>
       <c r="C542"/>
     </row>
-    <row r="543" spans="1:3">
+    <row r="543" spans="1:3" s="6" customFormat="1">
       <c r="A543"/>
       <c r="B543"/>
       <c r="C543"/>
     </row>
-    <row r="544" spans="1:3">
+    <row r="544" spans="1:3" s="6" customFormat="1">
       <c r="A544"/>
       <c r="B544"/>
       <c r="C544"/>
     </row>
-    <row r="545" spans="1:3">
+    <row r="545" spans="1:3" s="6" customFormat="1">
       <c r="A545"/>
       <c r="B545"/>
       <c r="C545"/>
     </row>
-    <row r="546" spans="1:3">
+    <row r="546" spans="1:3" s="6" customFormat="1">
       <c r="A546"/>
       <c r="B546"/>
       <c r="C546"/>
@@ -5060,663 +4668,263 @@
       <c r="B556"/>
       <c r="C556"/>
     </row>
-    <row r="557" spans="1:3" s="6" customFormat="1">
+    <row r="557" spans="1:3" s="8" customFormat="1">
       <c r="A557"/>
       <c r="B557"/>
       <c r="C557"/>
     </row>
-    <row r="558" spans="1:3" s="6" customFormat="1">
+    <row r="558" spans="1:3" s="8" customFormat="1">
       <c r="A558"/>
       <c r="B558"/>
       <c r="C558"/>
     </row>
-    <row r="559" spans="1:3" s="6" customFormat="1">
+    <row r="559" spans="1:3" s="8" customFormat="1">
       <c r="A559"/>
       <c r="B559"/>
       <c r="C559"/>
     </row>
-    <row r="560" spans="1:3" s="6" customFormat="1">
+    <row r="560" spans="1:3" s="8" customFormat="1">
       <c r="A560"/>
       <c r="B560"/>
       <c r="C560"/>
     </row>
-    <row r="561" spans="1:3" s="6" customFormat="1">
+    <row r="561" spans="1:3" s="8" customFormat="1">
       <c r="A561"/>
       <c r="B561"/>
       <c r="C561"/>
     </row>
-    <row r="562" spans="1:3" s="6" customFormat="1">
+    <row r="562" spans="1:3" s="8" customFormat="1">
       <c r="A562"/>
       <c r="B562"/>
       <c r="C562"/>
     </row>
-    <row r="563" spans="1:3" s="6" customFormat="1">
+    <row r="563" spans="1:3" s="8" customFormat="1">
       <c r="A563"/>
       <c r="B563"/>
       <c r="C563"/>
     </row>
-    <row r="564" spans="1:3" s="6" customFormat="1">
+    <row r="564" spans="1:3" s="8" customFormat="1">
       <c r="A564"/>
       <c r="B564"/>
       <c r="C564"/>
     </row>
-    <row r="565" spans="1:3" s="6" customFormat="1">
+    <row r="565" spans="1:3" s="8" customFormat="1">
       <c r="A565"/>
       <c r="B565"/>
       <c r="C565"/>
     </row>
-    <row r="566" spans="1:3" s="6" customFormat="1">
+    <row r="566" spans="1:3" s="8" customFormat="1">
       <c r="A566"/>
       <c r="B566"/>
       <c r="C566"/>
     </row>
-    <row r="567" spans="1:3" s="6" customFormat="1">
+    <row r="567" spans="1:3" s="8" customFormat="1">
       <c r="A567"/>
       <c r="B567"/>
       <c r="C567"/>
     </row>
-    <row r="568" spans="1:3" s="6" customFormat="1">
+    <row r="568" spans="1:3" s="8" customFormat="1">
       <c r="A568"/>
       <c r="B568"/>
       <c r="C568"/>
     </row>
-    <row r="569" spans="1:3" s="6" customFormat="1">
+    <row r="569" spans="1:3" s="8" customFormat="1">
       <c r="A569"/>
       <c r="B569"/>
       <c r="C569"/>
     </row>
-    <row r="570" spans="1:3" s="6" customFormat="1">
+    <row r="570" spans="1:3" s="8" customFormat="1">
       <c r="A570"/>
       <c r="B570"/>
       <c r="C570"/>
     </row>
-    <row r="571" spans="1:3" s="6" customFormat="1">
+    <row r="571" spans="1:3" s="8" customFormat="1">
       <c r="A571"/>
       <c r="B571"/>
       <c r="C571"/>
     </row>
-    <row r="572" spans="1:3" s="6" customFormat="1">
+    <row r="572" spans="1:3" s="8" customFormat="1">
       <c r="A572"/>
       <c r="B572"/>
       <c r="C572"/>
     </row>
-    <row r="573" spans="1:3" s="6" customFormat="1">
+    <row r="573" spans="1:3" s="8" customFormat="1">
       <c r="A573"/>
       <c r="B573"/>
       <c r="C573"/>
     </row>
-    <row r="574" spans="1:3" s="6" customFormat="1">
+    <row r="574" spans="1:3" s="8" customFormat="1">
       <c r="A574"/>
       <c r="B574"/>
       <c r="C574"/>
     </row>
-    <row r="575" spans="1:3" s="6" customFormat="1">
+    <row r="575" spans="1:3" s="8" customFormat="1">
       <c r="A575"/>
       <c r="B575"/>
       <c r="C575"/>
     </row>
-    <row r="576" spans="1:3" s="6" customFormat="1">
+    <row r="576" spans="1:3" s="8" customFormat="1">
       <c r="A576"/>
       <c r="B576"/>
       <c r="C576"/>
     </row>
-    <row r="577" spans="1:3" s="6" customFormat="1">
+    <row r="577" spans="1:3" s="8" customFormat="1">
       <c r="A577"/>
       <c r="B577"/>
       <c r="C577"/>
     </row>
-    <row r="578" spans="1:3" s="6" customFormat="1">
+    <row r="578" spans="1:3" s="8" customFormat="1">
       <c r="A578"/>
       <c r="B578"/>
       <c r="C578"/>
     </row>
-    <row r="579" spans="1:3" s="6" customFormat="1">
+    <row r="579" spans="1:3" s="8" customFormat="1">
       <c r="A579"/>
       <c r="B579"/>
       <c r="C579"/>
     </row>
-    <row r="580" spans="1:3" s="6" customFormat="1">
+    <row r="580" spans="1:3" s="8" customFormat="1">
       <c r="A580"/>
       <c r="B580"/>
       <c r="C580"/>
     </row>
-    <row r="581" spans="1:3" s="6" customFormat="1">
+    <row r="581" spans="1:3">
       <c r="A581"/>
       <c r="B581"/>
       <c r="C581"/>
     </row>
-    <row r="582" spans="1:3" s="6" customFormat="1">
+    <row r="582" spans="1:3">
       <c r="A582"/>
       <c r="B582"/>
       <c r="C582"/>
     </row>
-    <row r="583" spans="1:3" s="6" customFormat="1">
+    <row r="583" spans="1:3">
       <c r="A583"/>
       <c r="B583"/>
       <c r="C583"/>
     </row>
-    <row r="584" spans="1:3" s="6" customFormat="1">
+    <row r="584" spans="1:3">
       <c r="A584"/>
       <c r="B584"/>
       <c r="C584"/>
     </row>
-    <row r="585" spans="1:3" s="6" customFormat="1">
+    <row r="585" spans="1:3">
       <c r="A585"/>
       <c r="B585"/>
       <c r="C585"/>
     </row>
-    <row r="586" spans="1:3" s="6" customFormat="1">
+    <row r="586" spans="1:3">
       <c r="A586"/>
       <c r="B586"/>
       <c r="C586"/>
     </row>
-    <row r="587" spans="1:3" s="6" customFormat="1">
+    <row r="587" spans="1:3">
       <c r="A587"/>
       <c r="B587"/>
       <c r="C587"/>
     </row>
-    <row r="588" spans="1:3" s="6" customFormat="1">
+    <row r="588" spans="1:3">
       <c r="A588"/>
       <c r="B588"/>
       <c r="C588"/>
     </row>
-    <row r="589" spans="1:3" s="6" customFormat="1">
+    <row r="589" spans="1:3">
       <c r="A589"/>
       <c r="B589"/>
       <c r="C589"/>
     </row>
-    <row r="590" spans="1:3" s="6" customFormat="1">
+    <row r="590" spans="1:3">
       <c r="A590"/>
       <c r="B590"/>
       <c r="C590"/>
     </row>
-    <row r="591" spans="1:3" s="6" customFormat="1">
+    <row r="591" spans="1:3">
       <c r="A591"/>
       <c r="B591"/>
       <c r="C591"/>
     </row>
-    <row r="592" spans="1:3" s="6" customFormat="1">
+    <row r="592" spans="1:3">
       <c r="A592"/>
       <c r="B592"/>
       <c r="C592"/>
     </row>
-    <row r="593" spans="1:3" s="6" customFormat="1">
+    <row r="593" spans="1:3">
       <c r="A593"/>
       <c r="B593"/>
       <c r="C593"/>
     </row>
-    <row r="594" spans="1:3" s="6" customFormat="1">
+    <row r="594" spans="1:3">
       <c r="A594"/>
       <c r="B594"/>
       <c r="C594"/>
     </row>
-    <row r="595" spans="1:3" s="6" customFormat="1">
+    <row r="595" spans="1:3">
       <c r="A595"/>
       <c r="B595"/>
       <c r="C595"/>
     </row>
-    <row r="596" spans="1:3" s="6" customFormat="1">
+    <row r="596" spans="1:3">
       <c r="A596"/>
       <c r="B596"/>
       <c r="C596"/>
     </row>
-    <row r="597" spans="1:3" s="6" customFormat="1">
+    <row r="597" spans="1:3">
       <c r="A597"/>
       <c r="B597"/>
       <c r="C597"/>
     </row>
-    <row r="598" spans="1:3" s="6" customFormat="1">
+    <row r="598" spans="1:3">
       <c r="A598"/>
       <c r="B598"/>
       <c r="C598"/>
     </row>
-    <row r="599" spans="1:3" s="6" customFormat="1">
+    <row r="599" spans="1:3">
       <c r="A599"/>
       <c r="B599"/>
       <c r="C599"/>
     </row>
-    <row r="600" spans="1:3" s="6" customFormat="1">
+    <row r="600" spans="1:3">
       <c r="A600"/>
       <c r="B600"/>
       <c r="C600"/>
     </row>
-    <row r="601" spans="1:3" s="6" customFormat="1">
+    <row r="601" spans="1:3">
       <c r="A601"/>
       <c r="B601"/>
       <c r="C601"/>
     </row>
-    <row r="602" spans="1:3" s="6" customFormat="1">
+    <row r="602" spans="1:3">
       <c r="A602"/>
       <c r="B602"/>
       <c r="C602"/>
     </row>
-    <row r="603" spans="1:3" s="6" customFormat="1">
+    <row r="603" spans="1:3">
       <c r="A603"/>
       <c r="B603"/>
       <c r="C603"/>
     </row>
-    <row r="604" spans="1:3" s="6" customFormat="1">
+    <row r="604" spans="1:3">
       <c r="A604"/>
       <c r="B604"/>
       <c r="C604"/>
     </row>
-    <row r="605" spans="1:3" s="6" customFormat="1">
+    <row r="605" spans="1:3">
       <c r="A605"/>
       <c r="B605"/>
       <c r="C605"/>
     </row>
-    <row r="606" spans="1:3" s="6" customFormat="1">
+    <row r="606" spans="1:3">
       <c r="A606"/>
       <c r="B606"/>
       <c r="C606"/>
     </row>
-    <row r="607" spans="1:3" s="6" customFormat="1">
+    <row r="607" spans="1:3">
       <c r="A607"/>
       <c r="B607"/>
       <c r="C607"/>
     </row>
-    <row r="608" spans="1:3" s="6" customFormat="1">
-      <c r="A608"/>
-      <c r="B608"/>
-      <c r="C608"/>
-    </row>
-    <row r="609" spans="1:3" s="6" customFormat="1">
-      <c r="A609"/>
-      <c r="B609"/>
-      <c r="C609"/>
-    </row>
-    <row r="610" spans="1:3" s="6" customFormat="1">
-      <c r="A610"/>
-      <c r="B610"/>
-      <c r="C610"/>
-    </row>
-    <row r="611" spans="1:3" s="6" customFormat="1">
-      <c r="A611"/>
-      <c r="B611"/>
-      <c r="C611"/>
-    </row>
-    <row r="612" spans="1:3" s="6" customFormat="1">
-      <c r="A612"/>
-      <c r="B612"/>
-      <c r="C612"/>
-    </row>
-    <row r="613" spans="1:3" s="6" customFormat="1">
-      <c r="A613"/>
-      <c r="B613"/>
-      <c r="C613"/>
-    </row>
-    <row r="614" spans="1:3" s="6" customFormat="1">
-      <c r="A614"/>
-      <c r="B614"/>
-      <c r="C614"/>
-    </row>
-    <row r="615" spans="1:3" s="6" customFormat="1">
-      <c r="A615"/>
-      <c r="B615"/>
-      <c r="C615"/>
-    </row>
-    <row r="616" spans="1:3" s="6" customFormat="1">
-      <c r="A616"/>
-      <c r="B616"/>
-      <c r="C616"/>
-    </row>
-    <row r="617" spans="1:3" s="6" customFormat="1">
-      <c r="A617"/>
-      <c r="B617"/>
-      <c r="C617"/>
-    </row>
-    <row r="618" spans="1:3" s="6" customFormat="1">
-      <c r="A618"/>
-      <c r="B618"/>
-      <c r="C618"/>
-    </row>
-    <row r="619" spans="1:3" s="6" customFormat="1">
-      <c r="A619"/>
-      <c r="B619"/>
-      <c r="C619"/>
-    </row>
-    <row r="620" spans="1:3" s="6" customFormat="1">
-      <c r="A620"/>
-      <c r="B620"/>
-      <c r="C620"/>
-    </row>
-    <row r="621" spans="1:3" s="6" customFormat="1">
-      <c r="A621"/>
-      <c r="B621"/>
-      <c r="C621"/>
-    </row>
-    <row r="622" spans="1:3" s="6" customFormat="1">
-      <c r="A622"/>
-      <c r="B622"/>
-      <c r="C622"/>
-    </row>
-    <row r="623" spans="1:3" s="6" customFormat="1">
-      <c r="A623"/>
-      <c r="B623"/>
-      <c r="C623"/>
-    </row>
-    <row r="624" spans="1:3" s="6" customFormat="1">
-      <c r="A624"/>
-      <c r="B624"/>
-      <c r="C624"/>
-    </row>
-    <row r="625" spans="1:3" s="6" customFormat="1">
-      <c r="A625"/>
-      <c r="B625"/>
-      <c r="C625"/>
-    </row>
-    <row r="626" spans="1:3" s="6" customFormat="1">
-      <c r="A626"/>
-      <c r="B626"/>
-      <c r="C626"/>
-    </row>
-    <row r="627" spans="1:3" s="6" customFormat="1">
-      <c r="A627"/>
-      <c r="B627"/>
-      <c r="C627"/>
-    </row>
-    <row r="628" spans="1:3" s="6" customFormat="1">
-      <c r="A628"/>
-      <c r="B628"/>
-      <c r="C628"/>
-    </row>
-    <row r="629" spans="1:3" s="6" customFormat="1">
-      <c r="A629"/>
-      <c r="B629"/>
-      <c r="C629"/>
-    </row>
-    <row r="630" spans="1:3" s="6" customFormat="1">
-      <c r="A630"/>
-      <c r="B630"/>
-      <c r="C630"/>
-    </row>
-    <row r="631" spans="1:3" s="6" customFormat="1">
-      <c r="A631"/>
-      <c r="B631"/>
-      <c r="C631"/>
-    </row>
-    <row r="632" spans="1:3" s="6" customFormat="1">
-      <c r="A632"/>
-      <c r="B632"/>
-      <c r="C632"/>
-    </row>
-    <row r="633" spans="1:3" s="6" customFormat="1">
-      <c r="A633"/>
-      <c r="B633"/>
-      <c r="C633"/>
-    </row>
-    <row r="634" spans="1:3" s="6" customFormat="1">
-      <c r="A634"/>
-      <c r="B634"/>
-      <c r="C634"/>
-    </row>
-    <row r="635" spans="1:3" s="6" customFormat="1">
-      <c r="A635"/>
-      <c r="B635"/>
-      <c r="C635"/>
-    </row>
-    <row r="636" spans="1:3" s="6" customFormat="1">
-      <c r="A636"/>
-      <c r="B636"/>
-      <c r="C636"/>
-    </row>
-    <row r="637" spans="1:3" s="8" customFormat="1">
-      <c r="A637"/>
-      <c r="B637"/>
-      <c r="C637"/>
-    </row>
-    <row r="638" spans="1:3" s="8" customFormat="1">
-      <c r="A638"/>
-      <c r="B638"/>
-      <c r="C638"/>
-    </row>
-    <row r="639" spans="1:3" s="8" customFormat="1">
-      <c r="A639"/>
-      <c r="B639"/>
-      <c r="C639"/>
-    </row>
-    <row r="640" spans="1:3" s="8" customFormat="1">
-      <c r="A640"/>
-      <c r="B640"/>
-      <c r="C640"/>
-    </row>
-    <row r="641" spans="1:3" s="8" customFormat="1">
-      <c r="A641"/>
-      <c r="B641"/>
-      <c r="C641"/>
-    </row>
-    <row r="642" spans="1:3" s="8" customFormat="1">
-      <c r="A642"/>
-      <c r="B642"/>
-      <c r="C642"/>
-    </row>
-    <row r="643" spans="1:3" s="8" customFormat="1">
-      <c r="A643"/>
-      <c r="B643"/>
-      <c r="C643"/>
-    </row>
-    <row r="644" spans="1:3" s="8" customFormat="1">
-      <c r="A644"/>
-      <c r="B644"/>
-      <c r="C644"/>
-    </row>
-    <row r="645" spans="1:3" s="8" customFormat="1">
-      <c r="A645"/>
-      <c r="B645"/>
-      <c r="C645"/>
-    </row>
-    <row r="646" spans="1:3" s="8" customFormat="1">
-      <c r="A646"/>
-      <c r="B646"/>
-      <c r="C646"/>
-    </row>
-    <row r="647" spans="1:3" s="8" customFormat="1">
-      <c r="A647"/>
-      <c r="B647"/>
-      <c r="C647"/>
-    </row>
-    <row r="648" spans="1:3" s="8" customFormat="1">
-      <c r="A648"/>
-      <c r="B648"/>
-      <c r="C648"/>
-    </row>
-    <row r="649" spans="1:3" s="8" customFormat="1">
-      <c r="A649"/>
-      <c r="B649"/>
-      <c r="C649"/>
-    </row>
-    <row r="650" spans="1:3" s="8" customFormat="1">
-      <c r="A650"/>
-      <c r="B650"/>
-      <c r="C650"/>
-    </row>
-    <row r="651" spans="1:3" s="8" customFormat="1">
-      <c r="A651"/>
-      <c r="B651"/>
-      <c r="C651"/>
-    </row>
-    <row r="652" spans="1:3" s="8" customFormat="1">
-      <c r="A652"/>
-      <c r="B652"/>
-      <c r="C652"/>
-    </row>
-    <row r="653" spans="1:3" s="8" customFormat="1">
-      <c r="A653"/>
-      <c r="B653"/>
-      <c r="C653"/>
-    </row>
-    <row r="654" spans="1:3" s="8" customFormat="1">
-      <c r="A654"/>
-      <c r="B654"/>
-      <c r="C654"/>
-    </row>
-    <row r="655" spans="1:3" s="8" customFormat="1">
-      <c r="A655"/>
-      <c r="B655"/>
-      <c r="C655"/>
-    </row>
-    <row r="656" spans="1:3" s="8" customFormat="1">
-      <c r="A656"/>
-      <c r="B656"/>
-      <c r="C656"/>
-    </row>
-    <row r="657" spans="1:3" s="8" customFormat="1">
-      <c r="A657"/>
-      <c r="B657"/>
-      <c r="C657"/>
-    </row>
-    <row r="658" spans="1:3" s="8" customFormat="1">
-      <c r="A658"/>
-      <c r="B658"/>
-      <c r="C658"/>
-    </row>
-    <row r="659" spans="1:3" s="8" customFormat="1">
-      <c r="A659"/>
-      <c r="B659"/>
-      <c r="C659"/>
-    </row>
-    <row r="660" spans="1:3" s="8" customFormat="1">
-      <c r="A660"/>
-      <c r="B660"/>
-      <c r="C660"/>
-    </row>
-    <row r="661" spans="1:3">
-      <c r="A661"/>
-      <c r="B661"/>
-      <c r="C661"/>
-    </row>
-    <row r="662" spans="1:3">
-      <c r="A662"/>
-      <c r="B662"/>
-      <c r="C662"/>
-    </row>
-    <row r="663" spans="1:3">
-      <c r="A663"/>
-      <c r="B663"/>
-      <c r="C663"/>
-    </row>
-    <row r="664" spans="1:3">
-      <c r="A664"/>
-      <c r="B664"/>
-      <c r="C664"/>
-    </row>
-    <row r="665" spans="1:3">
-      <c r="A665"/>
-      <c r="B665"/>
-      <c r="C665"/>
-    </row>
-    <row r="666" spans="1:3">
-      <c r="A666"/>
-      <c r="B666"/>
-      <c r="C666"/>
-    </row>
-    <row r="667" spans="1:3">
-      <c r="A667"/>
-      <c r="B667"/>
-      <c r="C667"/>
-    </row>
-    <row r="668" spans="1:3">
-      <c r="A668"/>
-      <c r="B668"/>
-      <c r="C668"/>
-    </row>
-    <row r="669" spans="1:3">
-      <c r="A669"/>
-      <c r="B669"/>
-      <c r="C669"/>
-    </row>
-    <row r="670" spans="1:3">
-      <c r="A670"/>
-      <c r="B670"/>
-      <c r="C670"/>
-    </row>
-    <row r="671" spans="1:3">
-      <c r="A671"/>
-      <c r="B671"/>
-      <c r="C671"/>
-    </row>
-    <row r="672" spans="1:3">
-      <c r="A672"/>
-      <c r="B672"/>
-      <c r="C672"/>
-    </row>
-    <row r="673" spans="1:3">
-      <c r="A673"/>
-      <c r="B673"/>
-      <c r="C673"/>
-    </row>
-    <row r="674" spans="1:3">
-      <c r="A674"/>
-      <c r="B674"/>
-      <c r="C674"/>
-    </row>
-    <row r="675" spans="1:3">
-      <c r="A675"/>
-      <c r="B675"/>
-      <c r="C675"/>
-    </row>
-    <row r="676" spans="1:3">
-      <c r="A676"/>
-      <c r="B676"/>
-      <c r="C676"/>
-    </row>
-    <row r="677" spans="1:3">
-      <c r="A677"/>
-      <c r="B677"/>
-      <c r="C677"/>
-    </row>
-    <row r="678" spans="1:3">
-      <c r="A678"/>
-      <c r="B678"/>
-      <c r="C678"/>
-    </row>
-    <row r="679" spans="1:3">
-      <c r="A679"/>
-      <c r="B679"/>
-      <c r="C679"/>
-    </row>
-    <row r="680" spans="1:3">
-      <c r="A680"/>
-      <c r="B680"/>
-      <c r="C680"/>
-    </row>
-    <row r="681" spans="1:3">
-      <c r="A681"/>
-      <c r="B681"/>
-      <c r="C681"/>
-    </row>
-    <row r="682" spans="1:3">
-      <c r="A682"/>
-      <c r="B682"/>
-      <c r="C682"/>
-    </row>
-    <row r="683" spans="1:3">
-      <c r="A683"/>
-      <c r="B683"/>
-      <c r="C683"/>
-    </row>
-    <row r="684" spans="1:3">
-      <c r="A684"/>
-      <c r="B684"/>
-      <c r="C684"/>
-    </row>
-    <row r="685" spans="1:3">
-      <c r="A685"/>
-      <c r="B685"/>
-      <c r="C685"/>
-    </row>
-    <row r="686" spans="1:3">
-      <c r="A686"/>
-      <c r="B686"/>
-      <c r="C686"/>
-    </row>
-    <row r="687" spans="1:3">
-      <c r="A687"/>
-      <c r="B687"/>
-      <c r="C687"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:C257" xr:uid="{F0F1E9AA-42FA-48CE-9C0D-6753CE8DE448}"/>
+  <autoFilter ref="A1:C177" xr:uid="{F0F1E9AA-42FA-48CE-9C0D-6753CE8DE448}"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576" xr:uid="{282CD8DC-1CD6-4FEE-88BD-6500CF45AFA3}">
       <formula1>"#na, stage_1, stage_2, stage_3, stage_4, stage_5, stage_6, stage_7, stage_8, stage_9, stage_10, stage_11, stage_12, stage_13"</formula1>

--- a/powerapp/data/ufls_assignment.xlsx
+++ b/powerapp/data/ufls_assignment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myIjat\Job\1_Operation\Network\System_Defences\UFLS_UVLS\2025_Review\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myIjat\Dojo\work\power_app\powerapp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4DDD73-2B3B-4AEA-9F22-6739C94A82BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D248731-776A-4223-B4AC-D539889FE56F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{EAAC684E-7C1B-4F2F-BC7C-B97D8EF3A83B}"/>
+    <workbookView xWindow="-11050" yWindow="-20840" windowWidth="17810" windowHeight="15370" xr2:uid="{EAAC684E-7C1B-4F2F-BC7C-B97D8EF3A83B}"/>
   </bookViews>
   <sheets>
     <sheet name="ufls_assignment" sheetId="1" r:id="rId1"/>
@@ -1025,10 +1025,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F1E9AA-42FA-48CE-9C0D-6753CE8DE448}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:C607"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F184" sqref="F184"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1049,7 +1050,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" hidden="1">
       <c r="A2" s="4" t="s">
         <v>172</v>
       </c>
@@ -1214,7 +1215,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" hidden="1">
       <c r="A17" s="4" t="s">
         <v>0</v>
       </c>
@@ -1223,7 +1224,7 @@
       </c>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" hidden="1">
       <c r="A18" s="4" t="s">
         <v>1</v>
       </c>
@@ -1232,7 +1233,7 @@
       </c>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" hidden="1">
       <c r="A19" s="4" t="s">
         <v>2</v>
       </c>
@@ -1241,7 +1242,7 @@
       </c>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" hidden="1">
       <c r="A20" s="4" t="s">
         <v>3</v>
       </c>
@@ -1250,7 +1251,7 @@
       </c>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" hidden="1">
       <c r="A21" s="4" t="s">
         <v>4</v>
       </c>
@@ -1259,7 +1260,7 @@
       </c>
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" hidden="1">
       <c r="A22" s="4" t="s">
         <v>5</v>
       </c>
@@ -1279,7 +1280,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="6" customFormat="1">
+    <row r="24" spans="1:3" s="6" customFormat="1" hidden="1">
       <c r="A24" s="4" t="s">
         <v>7</v>
       </c>
@@ -1288,7 +1289,7 @@
       </c>
       <c r="C24" s="4"/>
     </row>
-    <row r="25" spans="1:3" s="6" customFormat="1">
+    <row r="25" spans="1:3" s="6" customFormat="1" hidden="1">
       <c r="A25" s="4" t="s">
         <v>8</v>
       </c>
@@ -1297,7 +1298,7 @@
       </c>
       <c r="C25" s="4"/>
     </row>
-    <row r="26" spans="1:3" s="7" customFormat="1">
+    <row r="26" spans="1:3" s="7" customFormat="1" hidden="1">
       <c r="A26" s="4" t="s">
         <v>9</v>
       </c>
@@ -1306,7 +1307,7 @@
       </c>
       <c r="C26" s="4"/>
     </row>
-    <row r="27" spans="1:3" s="7" customFormat="1">
+    <row r="27" spans="1:3" s="7" customFormat="1" hidden="1">
       <c r="A27" s="4" t="s">
         <v>10</v>
       </c>
@@ -1315,7 +1316,7 @@
       </c>
       <c r="C27" s="4"/>
     </row>
-    <row r="28" spans="1:3" s="7" customFormat="1">
+    <row r="28" spans="1:3" s="7" customFormat="1" hidden="1">
       <c r="A28" s="4" t="s">
         <v>11</v>
       </c>
@@ -1324,7 +1325,7 @@
       </c>
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="1:3" s="7" customFormat="1">
+    <row r="29" spans="1:3" s="7" customFormat="1" hidden="1">
       <c r="A29" s="4" t="s">
         <v>12</v>
       </c>
@@ -1333,7 +1334,7 @@
       </c>
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" hidden="1">
       <c r="A30" s="4" t="s">
         <v>13</v>
       </c>
@@ -1342,7 +1343,7 @@
       </c>
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" hidden="1">
       <c r="A31" s="4" t="s">
         <v>14</v>
       </c>
@@ -1351,7 +1352,7 @@
       </c>
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" hidden="1">
       <c r="A32" s="4" t="s">
         <v>15</v>
       </c>
@@ -1360,7 +1361,7 @@
       </c>
       <c r="C32" s="4"/>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" hidden="1">
       <c r="A33" s="4" t="s">
         <v>16</v>
       </c>
@@ -1369,7 +1370,7 @@
       </c>
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" hidden="1">
       <c r="A34" s="3" t="s">
         <v>17</v>
       </c>
@@ -1378,7 +1379,7 @@
       </c>
       <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" hidden="1">
       <c r="A35" s="3" t="s">
         <v>18</v>
       </c>
@@ -1387,7 +1388,7 @@
       </c>
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" hidden="1">
       <c r="A36" s="3" t="s">
         <v>19</v>
       </c>
@@ -1396,7 +1397,7 @@
       </c>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" hidden="1">
       <c r="A37" s="4" t="s">
         <v>20</v>
       </c>
@@ -1405,7 +1406,7 @@
       </c>
       <c r="C37" s="4"/>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" hidden="1">
       <c r="A38" s="3" t="s">
         <v>21</v>
       </c>
@@ -1414,7 +1415,7 @@
       </c>
       <c r="C38" s="3"/>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" hidden="1">
       <c r="A39" s="3" t="s">
         <v>22</v>
       </c>
@@ -1423,7 +1424,7 @@
       </c>
       <c r="C39" s="3"/>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" hidden="1">
       <c r="A40" s="3" t="s">
         <v>23</v>
       </c>
@@ -1432,7 +1433,7 @@
       </c>
       <c r="C40" s="3"/>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" hidden="1">
       <c r="A41" s="3" t="s">
         <v>24</v>
       </c>
@@ -1443,7 +1444,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" hidden="1">
       <c r="A42" s="3" t="s">
         <v>25</v>
       </c>
@@ -1454,7 +1455,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" hidden="1">
       <c r="A43" s="3" t="s">
         <v>26</v>
       </c>
@@ -1463,7 +1464,7 @@
       </c>
       <c r="C43" s="3"/>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" hidden="1">
       <c r="A44" s="3" t="s">
         <v>27</v>
       </c>
@@ -1472,7 +1473,7 @@
       </c>
       <c r="C44" s="3"/>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" hidden="1">
       <c r="A45" s="3" t="s">
         <v>28</v>
       </c>
@@ -1481,7 +1482,7 @@
       </c>
       <c r="C45" s="3"/>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" hidden="1">
       <c r="A46" s="3" t="s">
         <v>29</v>
       </c>
@@ -1490,7 +1491,7 @@
       </c>
       <c r="C46" s="3"/>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" hidden="1">
       <c r="A47" s="3" t="s">
         <v>30</v>
       </c>
@@ -1499,7 +1500,7 @@
       </c>
       <c r="C47" s="3"/>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" hidden="1">
       <c r="A48" s="3" t="s">
         <v>31</v>
       </c>
@@ -1508,7 +1509,7 @@
       </c>
       <c r="C48" s="3"/>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" hidden="1">
       <c r="A49" s="3" t="s">
         <v>32</v>
       </c>
@@ -1517,7 +1518,7 @@
       </c>
       <c r="C49" s="3"/>
     </row>
-    <row r="50" spans="1:3" ht="15" customHeight="1">
+    <row r="50" spans="1:3" ht="15" hidden="1" customHeight="1">
       <c r="A50" s="3" t="s">
         <v>33</v>
       </c>
@@ -1526,7 +1527,7 @@
       </c>
       <c r="C50" s="3"/>
     </row>
-    <row r="51" spans="1:3" ht="15" customHeight="1">
+    <row r="51" spans="1:3" ht="15" hidden="1" customHeight="1">
       <c r="A51" s="3" t="s">
         <v>34</v>
       </c>
@@ -1535,7 +1536,7 @@
       </c>
       <c r="C51" s="3"/>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" hidden="1">
       <c r="A52" s="3" t="s">
         <v>35</v>
       </c>
@@ -1544,7 +1545,7 @@
       </c>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" hidden="1">
       <c r="A53" s="3" t="s">
         <v>36</v>
       </c>
@@ -1553,7 +1554,7 @@
       </c>
       <c r="C53" s="3"/>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" hidden="1">
       <c r="A54" s="3" t="s">
         <v>37</v>
       </c>
@@ -1562,7 +1563,7 @@
       </c>
       <c r="C54" s="3"/>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" hidden="1">
       <c r="A55" s="4" t="s">
         <v>38</v>
       </c>
@@ -1571,7 +1572,7 @@
       </c>
       <c r="C55" s="4"/>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" hidden="1">
       <c r="A56" s="4" t="s">
         <v>187</v>
       </c>
@@ -1580,7 +1581,7 @@
       </c>
       <c r="C56" s="4"/>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" hidden="1">
       <c r="A57" s="3" t="s">
         <v>39</v>
       </c>
@@ -1589,7 +1590,7 @@
       </c>
       <c r="C57" s="3"/>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" hidden="1">
       <c r="A58" s="3" t="s">
         <v>40</v>
       </c>
@@ -1598,7 +1599,7 @@
       </c>
       <c r="C58" s="3"/>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" hidden="1">
       <c r="A59" s="3" t="s">
         <v>41</v>
       </c>
@@ -1607,7 +1608,7 @@
       </c>
       <c r="C59" s="3"/>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" hidden="1">
       <c r="A60" s="3" t="s">
         <v>42</v>
       </c>
@@ -1616,7 +1617,7 @@
       </c>
       <c r="C60" s="3"/>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" hidden="1">
       <c r="A61" s="3" t="s">
         <v>43</v>
       </c>
@@ -1625,7 +1626,7 @@
       </c>
       <c r="C61" s="3"/>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" hidden="1">
       <c r="A62" s="3" t="s">
         <v>44</v>
       </c>
@@ -1634,7 +1635,7 @@
       </c>
       <c r="C62" s="3"/>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" hidden="1">
       <c r="A63" s="3" t="s">
         <v>45</v>
       </c>
@@ -1643,7 +1644,7 @@
       </c>
       <c r="C63" s="3"/>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" hidden="1">
       <c r="A64" s="3" t="s">
         <v>46</v>
       </c>
@@ -1652,7 +1653,7 @@
       </c>
       <c r="C64" s="3"/>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" hidden="1">
       <c r="A65" s="3" t="s">
         <v>47</v>
       </c>
@@ -1661,7 +1662,7 @@
       </c>
       <c r="C65" s="3"/>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" hidden="1">
       <c r="A66" s="3" t="s">
         <v>48</v>
       </c>
@@ -1670,7 +1671,7 @@
       </c>
       <c r="C66" s="3"/>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" hidden="1">
       <c r="A67" s="3" t="s">
         <v>49</v>
       </c>
@@ -1679,7 +1680,7 @@
       </c>
       <c r="C67" s="3"/>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" hidden="1">
       <c r="A68" s="3" t="s">
         <v>50</v>
       </c>
@@ -1688,7 +1689,7 @@
       </c>
       <c r="C68" s="3"/>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" hidden="1">
       <c r="A69" s="3" t="s">
         <v>51</v>
       </c>
@@ -1697,7 +1698,7 @@
       </c>
       <c r="C69" s="3"/>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" hidden="1">
       <c r="A70" s="3" t="s">
         <v>52</v>
       </c>
@@ -1706,7 +1707,7 @@
       </c>
       <c r="C70" s="3"/>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" hidden="1">
       <c r="A71" s="3" t="s">
         <v>53</v>
       </c>
@@ -1715,7 +1716,7 @@
       </c>
       <c r="C71" s="3"/>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" hidden="1">
       <c r="A72" s="3" t="s">
         <v>54</v>
       </c>
@@ -1724,7 +1725,7 @@
       </c>
       <c r="C72" s="3"/>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" hidden="1">
       <c r="A73" s="3" t="s">
         <v>55</v>
       </c>
@@ -1733,7 +1734,7 @@
       </c>
       <c r="C73" s="3"/>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" hidden="1">
       <c r="A74" s="3" t="s">
         <v>56</v>
       </c>
@@ -1742,7 +1743,7 @@
       </c>
       <c r="C74" s="3"/>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" hidden="1">
       <c r="A75" s="3" t="s">
         <v>57</v>
       </c>
@@ -1751,7 +1752,7 @@
       </c>
       <c r="C75" s="3"/>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" hidden="1">
       <c r="A76" s="3" t="s">
         <v>58</v>
       </c>
@@ -1760,7 +1761,7 @@
       </c>
       <c r="C76" s="3"/>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" hidden="1">
       <c r="A77" s="3" t="s">
         <v>59</v>
       </c>
@@ -1769,7 +1770,7 @@
       </c>
       <c r="C77" s="3"/>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" hidden="1">
       <c r="A78" s="3" t="s">
         <v>60</v>
       </c>
@@ -1778,7 +1779,7 @@
       </c>
       <c r="C78" s="3"/>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" hidden="1">
       <c r="A79" s="3" t="s">
         <v>61</v>
       </c>
@@ -1798,7 +1799,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" hidden="1">
       <c r="A81" s="3" t="s">
         <v>63</v>
       </c>
@@ -1807,7 +1808,7 @@
       </c>
       <c r="C81" s="3"/>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" hidden="1">
       <c r="A82" s="3" t="s">
         <v>64</v>
       </c>
@@ -1827,7 +1828,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" hidden="1">
       <c r="A84" s="3" t="s">
         <v>66</v>
       </c>
@@ -1836,7 +1837,7 @@
       </c>
       <c r="C84" s="3"/>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" hidden="1">
       <c r="A85" s="3" t="s">
         <v>67</v>
       </c>
@@ -1845,7 +1846,7 @@
       </c>
       <c r="C85" s="3"/>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" hidden="1">
       <c r="A86" s="3" t="s">
         <v>68</v>
       </c>
@@ -1854,7 +1855,7 @@
       </c>
       <c r="C86" s="3"/>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" hidden="1">
       <c r="A87" s="3" t="s">
         <v>69</v>
       </c>
@@ -1874,7 +1875,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" hidden="1">
       <c r="A89" s="3" t="s">
         <v>71</v>
       </c>
@@ -1894,7 +1895,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" hidden="1">
       <c r="A91" s="3" t="s">
         <v>73</v>
       </c>
@@ -1903,7 +1904,7 @@
       </c>
       <c r="C91" s="3"/>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" hidden="1">
       <c r="A92" s="3" t="s">
         <v>74</v>
       </c>
@@ -1912,7 +1913,7 @@
       </c>
       <c r="C92" s="3"/>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" hidden="1">
       <c r="A93" s="3" t="s">
         <v>75</v>
       </c>
@@ -1921,7 +1922,7 @@
       </c>
       <c r="C93" s="3"/>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" hidden="1">
       <c r="A94" s="4" t="s">
         <v>76</v>
       </c>
@@ -1930,7 +1931,7 @@
       </c>
       <c r="C94" s="4"/>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" hidden="1">
       <c r="A95" s="4" t="s">
         <v>157</v>
       </c>
@@ -1939,7 +1940,7 @@
       </c>
       <c r="C95" s="4"/>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" hidden="1">
       <c r="A96" s="4" t="s">
         <v>77</v>
       </c>
@@ -1948,7 +1949,7 @@
       </c>
       <c r="C96" s="4"/>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" hidden="1">
       <c r="A97" s="3" t="s">
         <v>78</v>
       </c>
@@ -1957,7 +1958,7 @@
       </c>
       <c r="C97" s="3"/>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" hidden="1">
       <c r="A98" s="3" t="s">
         <v>79</v>
       </c>
@@ -1966,7 +1967,7 @@
       </c>
       <c r="C98" s="3"/>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" hidden="1">
       <c r="A99" s="3" t="s">
         <v>80</v>
       </c>
@@ -1975,7 +1976,7 @@
       </c>
       <c r="C99" s="3"/>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" hidden="1">
       <c r="A100" s="3" t="s">
         <v>81</v>
       </c>
@@ -1984,7 +1985,7 @@
       </c>
       <c r="C100" s="3"/>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" hidden="1">
       <c r="A101" s="3" t="s">
         <v>82</v>
       </c>
@@ -1993,7 +1994,7 @@
       </c>
       <c r="C101" s="3"/>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" hidden="1">
       <c r="A102" s="3" t="s">
         <v>83</v>
       </c>
@@ -2002,7 +2003,7 @@
       </c>
       <c r="C102" s="3"/>
     </row>
-    <row r="103" spans="1:3" s="7" customFormat="1">
+    <row r="103" spans="1:3" s="7" customFormat="1" hidden="1">
       <c r="A103" s="3" t="s">
         <v>84</v>
       </c>
@@ -2011,7 +2012,7 @@
       </c>
       <c r="C103" s="3"/>
     </row>
-    <row r="104" spans="1:3" s="7" customFormat="1">
+    <row r="104" spans="1:3" s="7" customFormat="1" hidden="1">
       <c r="A104" s="3" t="s">
         <v>85</v>
       </c>
@@ -2020,7 +2021,7 @@
       </c>
       <c r="C104" s="3"/>
     </row>
-    <row r="105" spans="1:3" s="7" customFormat="1">
+    <row r="105" spans="1:3" s="7" customFormat="1" hidden="1">
       <c r="A105" s="4" t="s">
         <v>86</v>
       </c>
@@ -2029,7 +2030,7 @@
       </c>
       <c r="C105" s="4"/>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" hidden="1">
       <c r="A106" s="3" t="s">
         <v>87</v>
       </c>
@@ -2038,7 +2039,7 @@
       </c>
       <c r="C106" s="3"/>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" hidden="1">
       <c r="A107" s="3" t="s">
         <v>88</v>
       </c>
@@ -2047,7 +2048,7 @@
       </c>
       <c r="C107" s="3"/>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" hidden="1">
       <c r="A108" s="4" t="s">
         <v>89</v>
       </c>
@@ -2056,7 +2057,7 @@
       </c>
       <c r="C108" s="4"/>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" hidden="1">
       <c r="A109" s="3" t="s">
         <v>90</v>
       </c>
@@ -2065,7 +2066,7 @@
       </c>
       <c r="C109" s="3"/>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" hidden="1">
       <c r="A110" s="3" t="s">
         <v>91</v>
       </c>
@@ -2074,7 +2075,7 @@
       </c>
       <c r="C110" s="3"/>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" hidden="1">
       <c r="A111" s="3" t="s">
         <v>92</v>
       </c>
@@ -2105,7 +2106,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" hidden="1">
       <c r="A114" s="3" t="s">
         <v>95</v>
       </c>
@@ -2125,7 +2126,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="116" spans="1:3" s="7" customFormat="1">
+    <row r="116" spans="1:3" s="7" customFormat="1" hidden="1">
       <c r="A116" s="4" t="s">
         <v>97</v>
       </c>
@@ -2134,7 +2135,7 @@
       </c>
       <c r="C116" s="4"/>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" hidden="1">
       <c r="A117" s="3" t="s">
         <v>98</v>
       </c>
@@ -2143,7 +2144,7 @@
       </c>
       <c r="C117" s="3"/>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" hidden="1">
       <c r="A118" s="3" t="s">
         <v>99</v>
       </c>
@@ -2152,7 +2153,7 @@
       </c>
       <c r="C118" s="3"/>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" hidden="1">
       <c r="A119" s="3" t="s">
         <v>189</v>
       </c>
@@ -2161,7 +2162,7 @@
       </c>
       <c r="C119" s="3"/>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" hidden="1">
       <c r="A120" s="3" t="s">
         <v>100</v>
       </c>
@@ -2170,7 +2171,7 @@
       </c>
       <c r="C120" s="3"/>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" hidden="1">
       <c r="A121" s="3" t="s">
         <v>101</v>
       </c>
@@ -2179,7 +2180,7 @@
       </c>
       <c r="C121" s="3"/>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" hidden="1">
       <c r="A122" s="3" t="s">
         <v>102</v>
       </c>
@@ -2188,7 +2189,7 @@
       </c>
       <c r="C122" s="3"/>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" hidden="1">
       <c r="A123" s="3" t="s">
         <v>103</v>
       </c>
@@ -2197,7 +2198,7 @@
       </c>
       <c r="C123" s="3"/>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" hidden="1">
       <c r="A124" s="3" t="s">
         <v>104</v>
       </c>
@@ -2206,7 +2207,7 @@
       </c>
       <c r="C124" s="3"/>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" hidden="1">
       <c r="A125" s="3" t="s">
         <v>105</v>
       </c>
@@ -2215,7 +2216,7 @@
       </c>
       <c r="C125" s="3"/>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" hidden="1">
       <c r="A126" s="3" t="s">
         <v>106</v>
       </c>
@@ -2224,7 +2225,7 @@
       </c>
       <c r="C126" s="3"/>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" hidden="1">
       <c r="A127" s="3" t="s">
         <v>107</v>
       </c>
@@ -2233,7 +2234,7 @@
       </c>
       <c r="C127" s="3"/>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" hidden="1">
       <c r="A128" s="3" t="s">
         <v>108</v>
       </c>
@@ -2242,7 +2243,7 @@
       </c>
       <c r="C128" s="3"/>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" hidden="1">
       <c r="A129" s="3" t="s">
         <v>109</v>
       </c>
@@ -2251,7 +2252,7 @@
       </c>
       <c r="C129" s="3"/>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" hidden="1">
       <c r="A130" s="3" t="s">
         <v>110</v>
       </c>
@@ -2260,7 +2261,7 @@
       </c>
       <c r="C130" s="3"/>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" hidden="1">
       <c r="A131" s="3" t="s">
         <v>111</v>
       </c>
@@ -2291,7 +2292,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" hidden="1">
       <c r="A134" s="3" t="s">
         <v>114</v>
       </c>
@@ -2300,7 +2301,7 @@
       </c>
       <c r="C134" s="3"/>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" hidden="1">
       <c r="A135" s="3" t="s">
         <v>115</v>
       </c>
@@ -2322,7 +2323,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" hidden="1">
       <c r="A137" s="3" t="s">
         <v>117</v>
       </c>
@@ -2333,7 +2334,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" hidden="1">
       <c r="A138" s="3" t="s">
         <v>118</v>
       </c>
@@ -2344,7 +2345,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" hidden="1">
       <c r="A139" s="3" t="s">
         <v>119</v>
       </c>
@@ -2355,7 +2356,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" hidden="1">
       <c r="A140" s="3" t="s">
         <v>120</v>
       </c>
@@ -2366,7 +2367,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" hidden="1">
       <c r="A141" s="3" t="s">
         <v>121</v>
       </c>
@@ -2377,7 +2378,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" hidden="1">
       <c r="A142" s="3" t="s">
         <v>122</v>
       </c>
@@ -2388,7 +2389,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" hidden="1">
       <c r="A143" s="4" t="s">
         <v>123</v>
       </c>
@@ -2399,7 +2400,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" hidden="1">
       <c r="A144" s="4" t="s">
         <v>124</v>
       </c>
@@ -2410,7 +2411,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" hidden="1">
       <c r="A145" s="4" t="s">
         <v>125</v>
       </c>
@@ -2421,7 +2422,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" hidden="1">
       <c r="A146" s="4" t="s">
         <v>126</v>
       </c>
@@ -2432,7 +2433,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" hidden="1">
       <c r="A147" s="3" t="s">
         <v>127</v>
       </c>
@@ -2443,7 +2444,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="148" spans="1:3" s="7" customFormat="1">
+    <row r="148" spans="1:3" s="7" customFormat="1" hidden="1">
       <c r="A148" s="3" t="s">
         <v>128</v>
       </c>
@@ -2454,7 +2455,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="149" spans="1:3" s="7" customFormat="1">
+    <row r="149" spans="1:3" s="7" customFormat="1" hidden="1">
       <c r="A149" s="3" t="s">
         <v>129</v>
       </c>
@@ -2465,7 +2466,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="150" spans="1:3" s="7" customFormat="1">
+    <row r="150" spans="1:3" s="7" customFormat="1" hidden="1">
       <c r="A150" s="3" t="s">
         <v>130</v>
       </c>
@@ -2476,7 +2477,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="151" spans="1:3" s="7" customFormat="1">
+    <row r="151" spans="1:3" s="7" customFormat="1" hidden="1">
       <c r="A151" s="3" t="s">
         <v>131</v>
       </c>
@@ -2487,7 +2488,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" hidden="1">
       <c r="A152" s="4" t="s">
         <v>132</v>
       </c>
@@ -2498,7 +2499,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" hidden="1">
       <c r="A153" s="3" t="s">
         <v>133</v>
       </c>
@@ -2509,7 +2510,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" hidden="1">
       <c r="A154" s="3" t="s">
         <v>134</v>
       </c>
@@ -2520,7 +2521,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" hidden="1">
       <c r="A155" s="3" t="s">
         <v>135</v>
       </c>
@@ -2531,7 +2532,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" hidden="1">
       <c r="A156" s="3" t="s">
         <v>136</v>
       </c>
@@ -2542,7 +2543,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" hidden="1">
       <c r="A157" s="4" t="s">
         <v>137</v>
       </c>
@@ -2553,7 +2554,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" hidden="1">
       <c r="A158" s="3" t="s">
         <v>138</v>
       </c>
@@ -2564,7 +2565,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="159" spans="1:3" s="7" customFormat="1">
+    <row r="159" spans="1:3" s="7" customFormat="1" hidden="1">
       <c r="A159" s="3" t="s">
         <v>139</v>
       </c>
@@ -2575,7 +2576,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="160" spans="1:3" s="7" customFormat="1">
+    <row r="160" spans="1:3" s="7" customFormat="1" hidden="1">
       <c r="A160" s="3" t="s">
         <v>140</v>
       </c>
@@ -2586,7 +2587,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" hidden="1">
       <c r="A161" s="4" t="s">
         <v>141</v>
       </c>
@@ -2597,7 +2598,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" hidden="1">
       <c r="A162" s="3" t="s">
         <v>142</v>
       </c>
@@ -2608,7 +2609,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" hidden="1">
       <c r="A163" s="4" t="s">
         <v>143</v>
       </c>
@@ -2619,7 +2620,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" hidden="1">
       <c r="A164" s="3" t="s">
         <v>144</v>
       </c>
@@ -2630,7 +2631,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" hidden="1">
       <c r="A165" s="4" t="s">
         <v>145</v>
       </c>
@@ -2641,7 +2642,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" hidden="1">
       <c r="A166" s="3" t="s">
         <v>146</v>
       </c>
@@ -2652,7 +2653,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" hidden="1">
       <c r="A167" s="4" t="s">
         <v>147</v>
       </c>
@@ -2663,7 +2664,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" hidden="1">
       <c r="A168" s="3" t="s">
         <v>148</v>
       </c>
@@ -2674,7 +2675,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" hidden="1">
       <c r="A169" s="3" t="s">
         <v>149</v>
       </c>
@@ -2685,7 +2686,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" hidden="1">
       <c r="A170" s="3" t="s">
         <v>150</v>
       </c>
@@ -2696,7 +2697,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" hidden="1">
       <c r="A171" s="3" t="s">
         <v>151</v>
       </c>
@@ -2707,7 +2708,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" hidden="1">
       <c r="A172" s="3" t="s">
         <v>152</v>
       </c>
@@ -2718,7 +2719,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" hidden="1">
       <c r="A173" s="3" t="s">
         <v>153</v>
       </c>
@@ -2729,7 +2730,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" hidden="1">
       <c r="A174" s="4" t="s">
         <v>190</v>
       </c>
@@ -2740,7 +2741,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" hidden="1">
       <c r="A175" s="3" t="s">
         <v>154</v>
       </c>
@@ -2751,7 +2752,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" hidden="1">
       <c r="A176" s="3" t="s">
         <v>155</v>
       </c>
@@ -2762,7 +2763,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" hidden="1">
       <c r="A177" s="4" t="s">
         <v>156</v>
       </c>
@@ -4924,7 +4925,13 @@
       <c r="C607"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C177" xr:uid="{F0F1E9AA-42FA-48CE-9C0D-6753CE8DE448}"/>
+  <autoFilter ref="A1:C177" xr:uid="{F0F1E9AA-42FA-48CE-9C0D-6753CE8DE448}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="stage_1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576" xr:uid="{282CD8DC-1CD6-4FEE-88BD-6500CF45AFA3}">
       <formula1>"#na, stage_1, stage_2, stage_3, stage_4, stage_5, stage_6, stage_7, stage_8, stage_9, stage_10, stage_11, stage_12, stage_13"</formula1>

--- a/powerapp/data/ufls_assignment.xlsx
+++ b/powerapp/data/ufls_assignment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myIjat\Dojo\work\power_app\powerapp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D248731-776A-4223-B4AC-D539889FE56F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4FC8AC-DB26-4965-AE3A-8665FA65DB36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11050" yWindow="-20840" windowWidth="17810" windowHeight="15370" xr2:uid="{EAAC684E-7C1B-4F2F-BC7C-B97D8EF3A83B}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{EAAC684E-7C1B-4F2F-BC7C-B97D8EF3A83B}"/>
   </bookViews>
   <sheets>
     <sheet name="ufls_assignment" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="191">
   <si>
     <t>blkg_33</t>
   </si>
@@ -1028,8 +1028,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:C607"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A133" sqref="A133"/>
+    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F128" sqref="F128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1061,7 +1061,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" hidden="1">
       <c r="A3" s="4" t="s">
         <v>173</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" hidden="1">
       <c r="A4" s="4" t="s">
         <v>174</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" hidden="1">
       <c r="A5" s="4" t="s">
         <v>175</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" hidden="1">
       <c r="A6" s="4" t="s">
         <v>176</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" hidden="1">
       <c r="A7" s="4" t="s">
         <v>177</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" hidden="1">
       <c r="A8" s="4" t="s">
         <v>178</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" hidden="1">
       <c r="A9" s="4" t="s">
         <v>179</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" hidden="1">
       <c r="A10" s="4" t="s">
         <v>180</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" hidden="1">
       <c r="A11" s="4" t="s">
         <v>181</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" hidden="1">
       <c r="A12" s="4" t="s">
         <v>182</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" hidden="1">
       <c r="A13" s="4" t="s">
         <v>183</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" hidden="1">
       <c r="A14" s="4" t="s">
         <v>184</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" hidden="1">
       <c r="A15" s="4" t="s">
         <v>185</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" hidden="1">
       <c r="A16" s="4" t="s">
         <v>186</v>
       </c>
@@ -1215,16 +1215,18 @@
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:3" hidden="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" hidden="1">
+      <c r="C17" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="4" t="s">
         <v>1</v>
       </c>
@@ -1233,7 +1235,7 @@
       </c>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:3" hidden="1">
+    <row r="19" spans="1:3">
       <c r="A19" s="4" t="s">
         <v>2</v>
       </c>
@@ -1242,7 +1244,7 @@
       </c>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3" hidden="1">
+    <row r="20" spans="1:3">
       <c r="A20" s="4" t="s">
         <v>3</v>
       </c>
@@ -1251,7 +1253,7 @@
       </c>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:3" hidden="1">
+    <row r="21" spans="1:3">
       <c r="A21" s="4" t="s">
         <v>4</v>
       </c>
@@ -1260,7 +1262,7 @@
       </c>
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="1:3" hidden="1">
+    <row r="22" spans="1:3">
       <c r="A22" s="4" t="s">
         <v>5</v>
       </c>
@@ -1280,7 +1282,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="6" customFormat="1" hidden="1">
+    <row r="24" spans="1:3" s="6" customFormat="1">
       <c r="A24" s="4" t="s">
         <v>7</v>
       </c>
@@ -1289,7 +1291,7 @@
       </c>
       <c r="C24" s="4"/>
     </row>
-    <row r="25" spans="1:3" s="6" customFormat="1" hidden="1">
+    <row r="25" spans="1:3" s="6" customFormat="1">
       <c r="A25" s="4" t="s">
         <v>8</v>
       </c>
@@ -1662,7 +1664,7 @@
       </c>
       <c r="C65" s="3"/>
     </row>
-    <row r="66" spans="1:3" hidden="1">
+    <row r="66" spans="1:3">
       <c r="A66" s="3" t="s">
         <v>48</v>
       </c>
@@ -1671,7 +1673,7 @@
       </c>
       <c r="C66" s="3"/>
     </row>
-    <row r="67" spans="1:3" hidden="1">
+    <row r="67" spans="1:3">
       <c r="A67" s="3" t="s">
         <v>49</v>
       </c>
@@ -1680,7 +1682,7 @@
       </c>
       <c r="C67" s="3"/>
     </row>
-    <row r="68" spans="1:3" hidden="1">
+    <row r="68" spans="1:3">
       <c r="A68" s="3" t="s">
         <v>50</v>
       </c>
@@ -1689,7 +1691,7 @@
       </c>
       <c r="C68" s="3"/>
     </row>
-    <row r="69" spans="1:3" hidden="1">
+    <row r="69" spans="1:3">
       <c r="A69" s="3" t="s">
         <v>51</v>
       </c>
@@ -1698,16 +1700,18 @@
       </c>
       <c r="C69" s="3"/>
     </row>
-    <row r="70" spans="1:3" hidden="1">
+    <row r="70" spans="1:3">
       <c r="A70" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C70" s="3"/>
-    </row>
-    <row r="71" spans="1:3" hidden="1">
+      <c r="C70" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" s="3" t="s">
         <v>53</v>
       </c>
@@ -1716,7 +1720,7 @@
       </c>
       <c r="C71" s="3"/>
     </row>
-    <row r="72" spans="1:3" hidden="1">
+    <row r="72" spans="1:3">
       <c r="A72" s="3" t="s">
         <v>54</v>
       </c>
@@ -1725,7 +1729,7 @@
       </c>
       <c r="C72" s="3"/>
     </row>
-    <row r="73" spans="1:3" hidden="1">
+    <row r="73" spans="1:3">
       <c r="A73" s="3" t="s">
         <v>55</v>
       </c>
@@ -1734,7 +1738,7 @@
       </c>
       <c r="C73" s="3"/>
     </row>
-    <row r="74" spans="1:3" hidden="1">
+    <row r="74" spans="1:3">
       <c r="A74" s="3" t="s">
         <v>56</v>
       </c>
@@ -1743,7 +1747,7 @@
       </c>
       <c r="C74" s="3"/>
     </row>
-    <row r="75" spans="1:3" hidden="1">
+    <row r="75" spans="1:3">
       <c r="A75" s="3" t="s">
         <v>57</v>
       </c>
@@ -1752,7 +1756,7 @@
       </c>
       <c r="C75" s="3"/>
     </row>
-    <row r="76" spans="1:3" hidden="1">
+    <row r="76" spans="1:3">
       <c r="A76" s="3" t="s">
         <v>58</v>
       </c>
@@ -1761,7 +1765,7 @@
       </c>
       <c r="C76" s="3"/>
     </row>
-    <row r="77" spans="1:3" hidden="1">
+    <row r="77" spans="1:3">
       <c r="A77" s="3" t="s">
         <v>59</v>
       </c>
@@ -1770,7 +1774,7 @@
       </c>
       <c r="C77" s="3"/>
     </row>
-    <row r="78" spans="1:3" hidden="1">
+    <row r="78" spans="1:3">
       <c r="A78" s="3" t="s">
         <v>60</v>
       </c>
@@ -1779,7 +1783,7 @@
       </c>
       <c r="C78" s="3"/>
     </row>
-    <row r="79" spans="1:3" hidden="1">
+    <row r="79" spans="1:3">
       <c r="A79" s="3" t="s">
         <v>61</v>
       </c>
@@ -1796,10 +1800,10 @@
         <v>163</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" hidden="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" s="3" t="s">
         <v>63</v>
       </c>
@@ -1808,7 +1812,7 @@
       </c>
       <c r="C81" s="3"/>
     </row>
-    <row r="82" spans="1:3" hidden="1">
+    <row r="82" spans="1:3">
       <c r="A82" s="3" t="s">
         <v>64</v>
       </c>
@@ -1824,11 +1828,9 @@
       <c r="B83" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C83" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" hidden="1">
+      <c r="C83" s="3"/>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" s="3" t="s">
         <v>66</v>
       </c>
@@ -1837,7 +1839,7 @@
       </c>
       <c r="C84" s="3"/>
     </row>
-    <row r="85" spans="1:3" hidden="1">
+    <row r="85" spans="1:3">
       <c r="A85" s="3" t="s">
         <v>67</v>
       </c>
@@ -1846,7 +1848,7 @@
       </c>
       <c r="C85" s="3"/>
     </row>
-    <row r="86" spans="1:3" hidden="1">
+    <row r="86" spans="1:3">
       <c r="A86" s="3" t="s">
         <v>68</v>
       </c>
@@ -1855,7 +1857,7 @@
       </c>
       <c r="C86" s="3"/>
     </row>
-    <row r="87" spans="1:3" hidden="1">
+    <row r="87" spans="1:3">
       <c r="A87" s="3" t="s">
         <v>69</v>
       </c>
@@ -1871,11 +1873,9 @@
       <c r="B88" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C88" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" hidden="1">
+      <c r="C88" s="3"/>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" s="3" t="s">
         <v>71</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="91" spans="1:3" hidden="1">
+    <row r="91" spans="1:3">
       <c r="A91" s="3" t="s">
         <v>73</v>
       </c>
@@ -1904,7 +1904,7 @@
       </c>
       <c r="C91" s="3"/>
     </row>
-    <row r="92" spans="1:3" hidden="1">
+    <row r="92" spans="1:3">
       <c r="A92" s="3" t="s">
         <v>74</v>
       </c>
@@ -1913,7 +1913,7 @@
       </c>
       <c r="C92" s="3"/>
     </row>
-    <row r="93" spans="1:3" hidden="1">
+    <row r="93" spans="1:3">
       <c r="A93" s="3" t="s">
         <v>75</v>
       </c>
@@ -1922,7 +1922,7 @@
       </c>
       <c r="C93" s="3"/>
     </row>
-    <row r="94" spans="1:3" hidden="1">
+    <row r="94" spans="1:3">
       <c r="A94" s="4" t="s">
         <v>76</v>
       </c>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="C94" s="4"/>
     </row>
-    <row r="95" spans="1:3" hidden="1">
+    <row r="95" spans="1:3">
       <c r="A95" s="4" t="s">
         <v>157</v>
       </c>
@@ -1940,7 +1940,7 @@
       </c>
       <c r="C95" s="4"/>
     </row>
-    <row r="96" spans="1:3" hidden="1">
+    <row r="96" spans="1:3">
       <c r="A96" s="4" t="s">
         <v>77</v>
       </c>
@@ -1949,7 +1949,7 @@
       </c>
       <c r="C96" s="4"/>
     </row>
-    <row r="97" spans="1:3" hidden="1">
+    <row r="97" spans="1:3">
       <c r="A97" s="3" t="s">
         <v>78</v>
       </c>
@@ -1958,7 +1958,7 @@
       </c>
       <c r="C97" s="3"/>
     </row>
-    <row r="98" spans="1:3" hidden="1">
+    <row r="98" spans="1:3">
       <c r="A98" s="3" t="s">
         <v>79</v>
       </c>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="C98" s="3"/>
     </row>
-    <row r="99" spans="1:3" hidden="1">
+    <row r="99" spans="1:3">
       <c r="A99" s="3" t="s">
         <v>80</v>
       </c>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="C99" s="3"/>
     </row>
-    <row r="100" spans="1:3" hidden="1">
+    <row r="100" spans="1:3">
       <c r="A100" s="3" t="s">
         <v>81</v>
       </c>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="C100" s="3"/>
     </row>
-    <row r="101" spans="1:3" hidden="1">
+    <row r="101" spans="1:3">
       <c r="A101" s="3" t="s">
         <v>82</v>
       </c>
@@ -1994,7 +1994,7 @@
       </c>
       <c r="C101" s="3"/>
     </row>
-    <row r="102" spans="1:3" hidden="1">
+    <row r="102" spans="1:3">
       <c r="A102" s="3" t="s">
         <v>83</v>
       </c>
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C102" s="3"/>
     </row>
-    <row r="103" spans="1:3" s="7" customFormat="1" hidden="1">
+    <row r="103" spans="1:3" s="7" customFormat="1">
       <c r="A103" s="3" t="s">
         <v>84</v>
       </c>
@@ -2012,7 +2012,7 @@
       </c>
       <c r="C103" s="3"/>
     </row>
-    <row r="104" spans="1:3" s="7" customFormat="1" hidden="1">
+    <row r="104" spans="1:3" s="7" customFormat="1">
       <c r="A104" s="3" t="s">
         <v>85</v>
       </c>
@@ -2021,7 +2021,7 @@
       </c>
       <c r="C104" s="3"/>
     </row>
-    <row r="105" spans="1:3" s="7" customFormat="1" hidden="1">
+    <row r="105" spans="1:3" s="7" customFormat="1">
       <c r="A105" s="4" t="s">
         <v>86</v>
       </c>
@@ -2030,7 +2030,7 @@
       </c>
       <c r="C105" s="4"/>
     </row>
-    <row r="106" spans="1:3" hidden="1">
+    <row r="106" spans="1:3">
       <c r="A106" s="3" t="s">
         <v>87</v>
       </c>
@@ -2039,7 +2039,7 @@
       </c>
       <c r="C106" s="3"/>
     </row>
-    <row r="107" spans="1:3" hidden="1">
+    <row r="107" spans="1:3">
       <c r="A107" s="3" t="s">
         <v>88</v>
       </c>
@@ -2048,7 +2048,7 @@
       </c>
       <c r="C107" s="3"/>
     </row>
-    <row r="108" spans="1:3" hidden="1">
+    <row r="108" spans="1:3">
       <c r="A108" s="4" t="s">
         <v>89</v>
       </c>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="C108" s="4"/>
     </row>
-    <row r="109" spans="1:3" hidden="1">
+    <row r="109" spans="1:3">
       <c r="A109" s="3" t="s">
         <v>90</v>
       </c>
@@ -2066,7 +2066,7 @@
       </c>
       <c r="C109" s="3"/>
     </row>
-    <row r="110" spans="1:3" hidden="1">
+    <row r="110" spans="1:3">
       <c r="A110" s="3" t="s">
         <v>91</v>
       </c>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="C110" s="3"/>
     </row>
-    <row r="111" spans="1:3" hidden="1">
+    <row r="111" spans="1:3">
       <c r="A111" s="3" t="s">
         <v>92</v>
       </c>
@@ -2106,7 +2106,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="114" spans="1:3" hidden="1">
+    <row r="114" spans="1:3">
       <c r="A114" s="3" t="s">
         <v>95</v>
       </c>
@@ -2123,10 +2123,10 @@
         <v>166</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" s="7" customFormat="1" hidden="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" s="7" customFormat="1">
       <c r="A116" s="4" t="s">
         <v>97</v>
       </c>
@@ -2135,7 +2135,7 @@
       </c>
       <c r="C116" s="4"/>
     </row>
-    <row r="117" spans="1:3" hidden="1">
+    <row r="117" spans="1:3">
       <c r="A117" s="3" t="s">
         <v>98</v>
       </c>
@@ -2144,7 +2144,7 @@
       </c>
       <c r="C117" s="3"/>
     </row>
-    <row r="118" spans="1:3" hidden="1">
+    <row r="118" spans="1:3">
       <c r="A118" s="3" t="s">
         <v>99</v>
       </c>
@@ -2153,16 +2153,18 @@
       </c>
       <c r="C118" s="3"/>
     </row>
-    <row r="119" spans="1:3" hidden="1">
+    <row r="119" spans="1:3">
       <c r="A119" s="3" t="s">
         <v>189</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C119" s="3"/>
-    </row>
-    <row r="120" spans="1:3" hidden="1">
+      <c r="C119" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
       <c r="A120" s="3" t="s">
         <v>100</v>
       </c>
@@ -2171,25 +2173,29 @@
       </c>
       <c r="C120" s="3"/>
     </row>
-    <row r="121" spans="1:3" hidden="1">
+    <row r="121" spans="1:3">
       <c r="A121" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C121" s="3"/>
-    </row>
-    <row r="122" spans="1:3" hidden="1">
+      <c r="C121" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
       <c r="A122" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C122" s="3"/>
-    </row>
-    <row r="123" spans="1:3" hidden="1">
+      <c r="C122" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
       <c r="A123" s="3" t="s">
         <v>103</v>
       </c>
@@ -2198,7 +2204,7 @@
       </c>
       <c r="C123" s="3"/>
     </row>
-    <row r="124" spans="1:3" hidden="1">
+    <row r="124" spans="1:3">
       <c r="A124" s="3" t="s">
         <v>104</v>
       </c>
@@ -2207,16 +2213,18 @@
       </c>
       <c r="C124" s="3"/>
     </row>
-    <row r="125" spans="1:3" hidden="1">
+    <row r="125" spans="1:3">
       <c r="A125" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C125" s="3"/>
-    </row>
-    <row r="126" spans="1:3" hidden="1">
+      <c r="C125" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
       <c r="A126" s="3" t="s">
         <v>106</v>
       </c>
@@ -2225,7 +2233,7 @@
       </c>
       <c r="C126" s="3"/>
     </row>
-    <row r="127" spans="1:3" hidden="1">
+    <row r="127" spans="1:3">
       <c r="A127" s="3" t="s">
         <v>107</v>
       </c>
@@ -2234,7 +2242,7 @@
       </c>
       <c r="C127" s="3"/>
     </row>
-    <row r="128" spans="1:3" hidden="1">
+    <row r="128" spans="1:3">
       <c r="A128" s="3" t="s">
         <v>108</v>
       </c>
@@ -2243,7 +2251,7 @@
       </c>
       <c r="C128" s="3"/>
     </row>
-    <row r="129" spans="1:3" hidden="1">
+    <row r="129" spans="1:3">
       <c r="A129" s="3" t="s">
         <v>109</v>
       </c>
@@ -2252,7 +2260,7 @@
       </c>
       <c r="C129" s="3"/>
     </row>
-    <row r="130" spans="1:3" hidden="1">
+    <row r="130" spans="1:3">
       <c r="A130" s="3" t="s">
         <v>110</v>
       </c>
@@ -2261,7 +2269,7 @@
       </c>
       <c r="C130" s="3"/>
     </row>
-    <row r="131" spans="1:3" hidden="1">
+    <row r="131" spans="1:3">
       <c r="A131" s="3" t="s">
         <v>111</v>
       </c>
@@ -2278,7 +2286,7 @@
         <v>167</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2292,7 +2300,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="134" spans="1:3" hidden="1">
+    <row r="134" spans="1:3">
       <c r="A134" s="3" t="s">
         <v>114</v>
       </c>
@@ -2301,7 +2309,7 @@
       </c>
       <c r="C134" s="3"/>
     </row>
-    <row r="135" spans="1:3" hidden="1">
+    <row r="135" spans="1:3">
       <c r="A135" s="3" t="s">
         <v>115</v>
       </c>
@@ -2320,10 +2328,10 @@
         <v>167</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" hidden="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
       <c r="A137" s="3" t="s">
         <v>117</v>
       </c>
@@ -2334,7 +2342,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="138" spans="1:3" hidden="1">
+    <row r="138" spans="1:3">
       <c r="A138" s="3" t="s">
         <v>118</v>
       </c>
@@ -2345,7 +2353,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="139" spans="1:3" hidden="1">
+    <row r="139" spans="1:3">
       <c r="A139" s="3" t="s">
         <v>119</v>
       </c>
@@ -2356,7 +2364,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="140" spans="1:3" hidden="1">
+    <row r="140" spans="1:3">
       <c r="A140" s="3" t="s">
         <v>120</v>
       </c>
@@ -2367,7 +2375,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="141" spans="1:3" hidden="1">
+    <row r="141" spans="1:3">
       <c r="A141" s="3" t="s">
         <v>121</v>
       </c>
@@ -2378,7 +2386,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="142" spans="1:3" hidden="1">
+    <row r="142" spans="1:3">
       <c r="A142" s="3" t="s">
         <v>122</v>
       </c>
@@ -2386,10 +2394,10 @@
         <v>167</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" hidden="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
       <c r="A143" s="4" t="s">
         <v>123</v>
       </c>
@@ -4926,9 +4934,14 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:C177" xr:uid="{F0F1E9AA-42FA-48CE-9C0D-6753CE8DE448}">
-    <filterColumn colId="2">
+    <filterColumn colId="1">
       <filters>
-        <filter val="stage_1"/>
+        <filter val="stage_4"/>
+        <filter val="stage_5"/>
+        <filter val="stage_6"/>
+        <filter val="stage_7"/>
+        <filter val="stage_8"/>
+        <filter val="stage_9"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/powerapp/data/ufls_assignment.xlsx
+++ b/powerapp/data/ufls_assignment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myIjat\Dojo\work\power_app\powerapp\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/externalDrive/code-gym/work/powerapp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4FC8AC-DB26-4965-AE3A-8665FA65DB36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C31A71-7A5B-9A4A-9566-9C8E4F5B52A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{EAAC684E-7C1B-4F2F-BC7C-B97D8EF3A83B}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="34400" windowHeight="26380" xr2:uid="{EAAC684E-7C1B-4F2F-BC7C-B97D8EF3A83B}"/>
   </bookViews>
   <sheets>
     <sheet name="ufls_assignment" sheetId="1" r:id="rId1"/>
@@ -611,7 +611,7 @@
     <t>bkws_33</t>
   </si>
   <si>
-    <t>smrk_hlnn_132</t>
+    <t>smrk_hlnm_132</t>
   </si>
 </sst>
 </file>
@@ -621,7 +621,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1028,18 +1028,18 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:C607"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F128" sqref="F128"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B180" sqref="B180"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.58203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="8.5" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="8.6640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>188</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="2" spans="1:3" hidden="1">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>172</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:3" hidden="1">
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>173</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:3" hidden="1">
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>174</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:3" hidden="1">
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>175</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:3" hidden="1">
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>176</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="7" spans="1:3" hidden="1">
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>177</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:3" hidden="1">
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>178</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:3" hidden="1">
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>179</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:3" hidden="1">
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>180</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:3" hidden="1">
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>181</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:3" hidden="1">
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>182</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:3" hidden="1">
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>183</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:3" hidden="1">
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>184</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:3" hidden="1">
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>185</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:3" hidden="1">
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>186</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>0</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>1</v>
       </c>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>2</v>
       </c>
@@ -1244,7 +1244,7 @@
       </c>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>3</v>
       </c>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>4</v>
       </c>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>5</v>
       </c>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="C22" s="4"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>6</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="6" customFormat="1">
+    <row r="24" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>7</v>
       </c>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="C24" s="4"/>
     </row>
-    <row r="25" spans="1:3" s="6" customFormat="1">
+    <row r="25" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>8</v>
       </c>
@@ -1300,7 +1300,7 @@
       </c>
       <c r="C25" s="4"/>
     </row>
-    <row r="26" spans="1:3" s="7" customFormat="1" hidden="1">
+    <row r="26" spans="1:3" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>9</v>
       </c>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="C26" s="4"/>
     </row>
-    <row r="27" spans="1:3" s="7" customFormat="1" hidden="1">
+    <row r="27" spans="1:3" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>10</v>
       </c>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="C27" s="4"/>
     </row>
-    <row r="28" spans="1:3" s="7" customFormat="1" hidden="1">
+    <row r="28" spans="1:3" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>11</v>
       </c>
@@ -1327,7 +1327,7 @@
       </c>
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="1:3" s="7" customFormat="1" hidden="1">
+    <row r="29" spans="1:3" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>12</v>
       </c>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="1:3" hidden="1">
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>13</v>
       </c>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="1:3" hidden="1">
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>14</v>
       </c>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="1:3" hidden="1">
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>15</v>
       </c>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C32" s="4"/>
     </row>
-    <row r="33" spans="1:3" hidden="1">
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>16</v>
       </c>
@@ -1372,7 +1372,7 @@
       </c>
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="1:3" hidden="1">
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>17</v>
       </c>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="1:3" hidden="1">
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>18</v>
       </c>
@@ -1390,7 +1390,7 @@
       </c>
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="1:3" hidden="1">
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>19</v>
       </c>
@@ -1399,7 +1399,7 @@
       </c>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:3" hidden="1">
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>20</v>
       </c>
@@ -1408,7 +1408,7 @@
       </c>
       <c r="C37" s="4"/>
     </row>
-    <row r="38" spans="1:3" hidden="1">
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>21</v>
       </c>
@@ -1417,7 +1417,7 @@
       </c>
       <c r="C38" s="3"/>
     </row>
-    <row r="39" spans="1:3" hidden="1">
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>22</v>
       </c>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="C39" s="3"/>
     </row>
-    <row r="40" spans="1:3" hidden="1">
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>23</v>
       </c>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="C40" s="3"/>
     </row>
-    <row r="41" spans="1:3" hidden="1">
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>24</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="42" spans="1:3" hidden="1">
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>25</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="43" spans="1:3" hidden="1">
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>26</v>
       </c>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C43" s="3"/>
     </row>
-    <row r="44" spans="1:3" hidden="1">
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>27</v>
       </c>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="C44" s="3"/>
     </row>
-    <row r="45" spans="1:3" hidden="1">
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>28</v>
       </c>
@@ -1484,7 +1484,7 @@
       </c>
       <c r="C45" s="3"/>
     </row>
-    <row r="46" spans="1:3" hidden="1">
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>29</v>
       </c>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="C46" s="3"/>
     </row>
-    <row r="47" spans="1:3" hidden="1">
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>30</v>
       </c>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="C47" s="3"/>
     </row>
-    <row r="48" spans="1:3" hidden="1">
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>31</v>
       </c>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="C48" s="3"/>
     </row>
-    <row r="49" spans="1:3" hidden="1">
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>32</v>
       </c>
@@ -1520,7 +1520,7 @@
       </c>
       <c r="C49" s="3"/>
     </row>
-    <row r="50" spans="1:3" ht="15" hidden="1" customHeight="1">
+    <row r="50" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>33</v>
       </c>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="C50" s="3"/>
     </row>
-    <row r="51" spans="1:3" ht="15" hidden="1" customHeight="1">
+    <row r="51" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>34</v>
       </c>
@@ -1538,7 +1538,7 @@
       </c>
       <c r="C51" s="3"/>
     </row>
-    <row r="52" spans="1:3" hidden="1">
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>35</v>
       </c>
@@ -1547,7 +1547,7 @@
       </c>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="1:3" hidden="1">
+    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>36</v>
       </c>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="C53" s="3"/>
     </row>
-    <row r="54" spans="1:3" hidden="1">
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>37</v>
       </c>
@@ -1565,7 +1565,7 @@
       </c>
       <c r="C54" s="3"/>
     </row>
-    <row r="55" spans="1:3" hidden="1">
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>38</v>
       </c>
@@ -1574,7 +1574,7 @@
       </c>
       <c r="C55" s="4"/>
     </row>
-    <row r="56" spans="1:3" hidden="1">
+    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>187</v>
       </c>
@@ -1583,7 +1583,7 @@
       </c>
       <c r="C56" s="4"/>
     </row>
-    <row r="57" spans="1:3" hidden="1">
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>39</v>
       </c>
@@ -1592,7 +1592,7 @@
       </c>
       <c r="C57" s="3"/>
     </row>
-    <row r="58" spans="1:3" hidden="1">
+    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>40</v>
       </c>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="C58" s="3"/>
     </row>
-    <row r="59" spans="1:3" hidden="1">
+    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>41</v>
       </c>
@@ -1610,7 +1610,7 @@
       </c>
       <c r="C59" s="3"/>
     </row>
-    <row r="60" spans="1:3" hidden="1">
+    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>42</v>
       </c>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C60" s="3"/>
     </row>
-    <row r="61" spans="1:3" hidden="1">
+    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>43</v>
       </c>
@@ -1628,7 +1628,7 @@
       </c>
       <c r="C61" s="3"/>
     </row>
-    <row r="62" spans="1:3" hidden="1">
+    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>44</v>
       </c>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="C62" s="3"/>
     </row>
-    <row r="63" spans="1:3" hidden="1">
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>45</v>
       </c>
@@ -1646,7 +1646,7 @@
       </c>
       <c r="C63" s="3"/>
     </row>
-    <row r="64" spans="1:3" hidden="1">
+    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>46</v>
       </c>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="C64" s="3"/>
     </row>
-    <row r="65" spans="1:3" hidden="1">
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>47</v>
       </c>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="C65" s="3"/>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>48</v>
       </c>
@@ -1673,7 +1673,7 @@
       </c>
       <c r="C66" s="3"/>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>49</v>
       </c>
@@ -1682,7 +1682,7 @@
       </c>
       <c r="C67" s="3"/>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>50</v>
       </c>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="C68" s="3"/>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>51</v>
       </c>
@@ -1700,7 +1700,7 @@
       </c>
       <c r="C69" s="3"/>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>52</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>53</v>
       </c>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="C71" s="3"/>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>54</v>
       </c>
@@ -1729,7 +1729,7 @@
       </c>
       <c r="C72" s="3"/>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>55</v>
       </c>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C73" s="3"/>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>56</v>
       </c>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C74" s="3"/>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>57</v>
       </c>
@@ -1756,7 +1756,7 @@
       </c>
       <c r="C75" s="3"/>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>58</v>
       </c>
@@ -1765,7 +1765,7 @@
       </c>
       <c r="C76" s="3"/>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>59</v>
       </c>
@@ -1774,7 +1774,7 @@
       </c>
       <c r="C77" s="3"/>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>60</v>
       </c>
@@ -1783,7 +1783,7 @@
       </c>
       <c r="C78" s="3"/>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>61</v>
       </c>
@@ -1792,7 +1792,7 @@
       </c>
       <c r="C79" s="3"/>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>62</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>63</v>
       </c>
@@ -1812,7 +1812,7 @@
       </c>
       <c r="C81" s="3"/>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>64</v>
       </c>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="C82" s="3"/>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>65</v>
       </c>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="C83" s="3"/>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>66</v>
       </c>
@@ -1839,7 +1839,7 @@
       </c>
       <c r="C84" s="3"/>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>67</v>
       </c>
@@ -1848,7 +1848,7 @@
       </c>
       <c r="C85" s="3"/>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>68</v>
       </c>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="C86" s="3"/>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>69</v>
       </c>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="C87" s="3"/>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>70</v>
       </c>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C88" s="3"/>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>71</v>
       </c>
@@ -1884,7 +1884,7 @@
       </c>
       <c r="C89" s="3"/>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>72</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>73</v>
       </c>
@@ -1904,7 +1904,7 @@
       </c>
       <c r="C91" s="3"/>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>74</v>
       </c>
@@ -1913,7 +1913,7 @@
       </c>
       <c r="C92" s="3"/>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>75</v>
       </c>
@@ -1922,7 +1922,7 @@
       </c>
       <c r="C93" s="3"/>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>76</v>
       </c>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="C94" s="4"/>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>157</v>
       </c>
@@ -1940,7 +1940,7 @@
       </c>
       <c r="C95" s="4"/>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>77</v>
       </c>
@@ -1949,7 +1949,7 @@
       </c>
       <c r="C96" s="4"/>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>78</v>
       </c>
@@ -1958,7 +1958,7 @@
       </c>
       <c r="C97" s="3"/>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>79</v>
       </c>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="C98" s="3"/>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>80</v>
       </c>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="C99" s="3"/>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>81</v>
       </c>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="C100" s="3"/>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>82</v>
       </c>
@@ -1994,7 +1994,7 @@
       </c>
       <c r="C101" s="3"/>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>83</v>
       </c>
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C102" s="3"/>
     </row>
-    <row r="103" spans="1:3" s="7" customFormat="1">
+    <row r="103" spans="1:3" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>84</v>
       </c>
@@ -2012,7 +2012,7 @@
       </c>
       <c r="C103" s="3"/>
     </row>
-    <row r="104" spans="1:3" s="7" customFormat="1">
+    <row r="104" spans="1:3" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>85</v>
       </c>
@@ -2021,7 +2021,7 @@
       </c>
       <c r="C104" s="3"/>
     </row>
-    <row r="105" spans="1:3" s="7" customFormat="1">
+    <row r="105" spans="1:3" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>86</v>
       </c>
@@ -2030,7 +2030,7 @@
       </c>
       <c r="C105" s="4"/>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>87</v>
       </c>
@@ -2039,7 +2039,7 @@
       </c>
       <c r="C106" s="3"/>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>88</v>
       </c>
@@ -2048,7 +2048,7 @@
       </c>
       <c r="C107" s="3"/>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>89</v>
       </c>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="C108" s="4"/>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>90</v>
       </c>
@@ -2066,7 +2066,7 @@
       </c>
       <c r="C109" s="3"/>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>91</v>
       </c>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="C110" s="3"/>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>92</v>
       </c>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="C111" s="3"/>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>93</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>94</v>
       </c>
@@ -2106,7 +2106,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>95</v>
       </c>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="C114" s="3"/>
     </row>
-    <row r="115" spans="1:3" s="7" customFormat="1">
+    <row r="115" spans="1:3" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>96</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="116" spans="1:3" s="7" customFormat="1">
+    <row r="116" spans="1:3" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>97</v>
       </c>
@@ -2135,7 +2135,7 @@
       </c>
       <c r="C116" s="4"/>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>98</v>
       </c>
@@ -2144,7 +2144,7 @@
       </c>
       <c r="C117" s="3"/>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>99</v>
       </c>
@@ -2153,7 +2153,7 @@
       </c>
       <c r="C118" s="3"/>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>189</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>100</v>
       </c>
@@ -2173,7 +2173,7 @@
       </c>
       <c r="C120" s="3"/>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>101</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>102</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>103</v>
       </c>
@@ -2204,7 +2204,7 @@
       </c>
       <c r="C123" s="3"/>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>104</v>
       </c>
@@ -2213,7 +2213,7 @@
       </c>
       <c r="C124" s="3"/>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>105</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>106</v>
       </c>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="C126" s="3"/>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>107</v>
       </c>
@@ -2242,7 +2242,7 @@
       </c>
       <c r="C127" s="3"/>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>108</v>
       </c>
@@ -2251,7 +2251,7 @@
       </c>
       <c r="C128" s="3"/>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>109</v>
       </c>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="C129" s="3"/>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>110</v>
       </c>
@@ -2269,7 +2269,7 @@
       </c>
       <c r="C130" s="3"/>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>111</v>
       </c>
@@ -2278,7 +2278,7 @@
       </c>
       <c r="C131" s="3"/>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>112</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>113</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>114</v>
       </c>
@@ -2309,7 +2309,7 @@
       </c>
       <c r="C134" s="3"/>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>115</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>116</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>117</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>118</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>119</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>120</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>121</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>122</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>123</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="144" spans="1:3" hidden="1">
+    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
         <v>124</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="145" spans="1:3" hidden="1">
+    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>125</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="146" spans="1:3" hidden="1">
+    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>126</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="147" spans="1:3" hidden="1">
+    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>127</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="148" spans="1:3" s="7" customFormat="1" hidden="1">
+    <row r="148" spans="1:3" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>128</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="149" spans="1:3" s="7" customFormat="1" hidden="1">
+    <row r="149" spans="1:3" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>129</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="150" spans="1:3" s="7" customFormat="1" hidden="1">
+    <row r="150" spans="1:3" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>130</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="151" spans="1:3" s="7" customFormat="1" hidden="1">
+    <row r="151" spans="1:3" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>131</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="152" spans="1:3" hidden="1">
+    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
         <v>132</v>
       </c>
@@ -2507,7 +2507,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="153" spans="1:3" hidden="1">
+    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>133</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="154" spans="1:3" hidden="1">
+    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>134</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="155" spans="1:3" hidden="1">
+    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>135</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="156" spans="1:3" hidden="1">
+    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>136</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="157" spans="1:3" hidden="1">
+    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
         <v>137</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="158" spans="1:3" hidden="1">
+    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>138</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="159" spans="1:3" s="7" customFormat="1" hidden="1">
+    <row r="159" spans="1:3" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>139</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="160" spans="1:3" s="7" customFormat="1" hidden="1">
+    <row r="160" spans="1:3" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
         <v>140</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="161" spans="1:3" hidden="1">
+    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
         <v>141</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="162" spans="1:3" hidden="1">
+    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
         <v>142</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="163" spans="1:3" hidden="1">
+    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
         <v>143</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="164" spans="1:3" hidden="1">
+    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
         <v>144</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="165" spans="1:3" hidden="1">
+    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
         <v>145</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="166" spans="1:3" hidden="1">
+    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
         <v>146</v>
       </c>
@@ -2661,7 +2661,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="167" spans="1:3" hidden="1">
+    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
         <v>147</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="168" spans="1:3" hidden="1">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
         <v>148</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="169" spans="1:3" hidden="1">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
         <v>149</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="170" spans="1:3" hidden="1">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
         <v>150</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="171" spans="1:3" hidden="1">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
         <v>151</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="172" spans="1:3" hidden="1">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
         <v>152</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:3" hidden="1">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
         <v>153</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="174" spans="1:3" hidden="1">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
         <v>190</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="175" spans="1:3" hidden="1">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
         <v>154</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="176" spans="1:3" hidden="1">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
         <v>155</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="177" spans="1:3" hidden="1">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
         <v>156</v>
       </c>
@@ -2782,2152 +2782,2152 @@
         <v>171</v>
       </c>
     </row>
-    <row r="178" spans="1:3" s="7" customFormat="1">
+    <row r="178" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178"/>
       <c r="B178"/>
       <c r="C178"/>
     </row>
-    <row r="179" spans="1:3" s="7" customFormat="1">
+    <row r="179" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179"/>
       <c r="B179"/>
       <c r="C179"/>
     </row>
-    <row r="180" spans="1:3" s="7" customFormat="1">
+    <row r="180" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A180"/>
       <c r="B180"/>
       <c r="C180"/>
     </row>
-    <row r="181" spans="1:3" s="7" customFormat="1">
+    <row r="181" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181"/>
       <c r="B181"/>
       <c r="C181"/>
     </row>
-    <row r="182" spans="1:3" s="7" customFormat="1">
+    <row r="182" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182"/>
       <c r="B182"/>
       <c r="C182"/>
     </row>
-    <row r="183" spans="1:3" s="7" customFormat="1">
+    <row r="183" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183"/>
       <c r="B183"/>
       <c r="C183"/>
     </row>
-    <row r="184" spans="1:3" s="7" customFormat="1">
+    <row r="184" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A184"/>
       <c r="B184"/>
       <c r="C184"/>
     </row>
-    <row r="185" spans="1:3" s="7" customFormat="1">
+    <row r="185" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185"/>
       <c r="B185"/>
       <c r="C185"/>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186"/>
       <c r="B186"/>
       <c r="C186"/>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187"/>
       <c r="B187"/>
       <c r="C187"/>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188"/>
       <c r="B188"/>
       <c r="C188"/>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189"/>
       <c r="B189"/>
       <c r="C189"/>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190"/>
       <c r="B190"/>
       <c r="C190"/>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191"/>
       <c r="B191"/>
       <c r="C191"/>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192"/>
       <c r="B192"/>
       <c r="C192"/>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193"/>
       <c r="B193"/>
       <c r="C193"/>
     </row>
-    <row r="194" spans="1:3" s="7" customFormat="1">
+    <row r="194" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194"/>
       <c r="B194"/>
       <c r="C194"/>
     </row>
-    <row r="195" spans="1:3" s="7" customFormat="1">
+    <row r="195" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A195"/>
       <c r="B195"/>
       <c r="C195"/>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196"/>
       <c r="B196"/>
       <c r="C196"/>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197"/>
       <c r="B197"/>
       <c r="C197"/>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198"/>
       <c r="B198"/>
       <c r="C198"/>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199"/>
       <c r="B199"/>
       <c r="C199"/>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200"/>
       <c r="B200"/>
       <c r="C200"/>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201"/>
       <c r="B201"/>
       <c r="C201"/>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202"/>
       <c r="B202"/>
       <c r="C202"/>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203"/>
       <c r="B203"/>
       <c r="C203"/>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204"/>
       <c r="B204"/>
       <c r="C204"/>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205"/>
       <c r="B205"/>
       <c r="C205"/>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206"/>
       <c r="B206"/>
       <c r="C206"/>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207"/>
       <c r="B207"/>
       <c r="C207"/>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208"/>
       <c r="B208"/>
       <c r="C208"/>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209"/>
       <c r="B209"/>
       <c r="C209"/>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210"/>
       <c r="B210"/>
       <c r="C210"/>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211"/>
       <c r="B211"/>
       <c r="C211"/>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212"/>
       <c r="B212"/>
       <c r="C212"/>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213"/>
       <c r="B213"/>
       <c r="C213"/>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214"/>
       <c r="B214"/>
       <c r="C214"/>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215"/>
       <c r="B215"/>
       <c r="C215"/>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216"/>
       <c r="B216"/>
       <c r="C216"/>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217"/>
       <c r="B217"/>
       <c r="C217"/>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218"/>
       <c r="B218"/>
       <c r="C218"/>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219"/>
       <c r="B219"/>
       <c r="C219"/>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220"/>
       <c r="B220"/>
       <c r="C220"/>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221"/>
       <c r="B221"/>
       <c r="C221"/>
     </row>
-    <row r="222" spans="1:3" s="7" customFormat="1">
+    <row r="222" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A222"/>
       <c r="B222"/>
       <c r="C222"/>
     </row>
-    <row r="223" spans="1:3" s="7" customFormat="1">
+    <row r="223" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A223"/>
       <c r="B223"/>
       <c r="C223"/>
     </row>
-    <row r="224" spans="1:3" s="7" customFormat="1">
+    <row r="224" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A224"/>
       <c r="B224"/>
       <c r="C224"/>
     </row>
-    <row r="225" spans="1:3" s="7" customFormat="1">
+    <row r="225" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A225"/>
       <c r="B225"/>
       <c r="C225"/>
     </row>
-    <row r="226" spans="1:3" s="7" customFormat="1">
+    <row r="226" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A226"/>
       <c r="B226"/>
       <c r="C226"/>
     </row>
-    <row r="227" spans="1:3" s="7" customFormat="1">
+    <row r="227" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A227"/>
       <c r="B227"/>
       <c r="C227"/>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228"/>
       <c r="B228"/>
       <c r="C228"/>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229"/>
       <c r="B229"/>
       <c r="C229"/>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230"/>
       <c r="B230"/>
       <c r="C230"/>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231"/>
       <c r="B231"/>
       <c r="C231"/>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232"/>
       <c r="B232"/>
       <c r="C232"/>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233"/>
       <c r="B233"/>
       <c r="C233"/>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234"/>
       <c r="B234"/>
       <c r="C234"/>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235"/>
       <c r="B235"/>
       <c r="C235"/>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236"/>
       <c r="B236"/>
       <c r="C236"/>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237"/>
       <c r="B237"/>
       <c r="C237"/>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238"/>
       <c r="B238"/>
       <c r="C238"/>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239"/>
       <c r="B239"/>
       <c r="C239"/>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240"/>
       <c r="B240"/>
       <c r="C240"/>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241"/>
       <c r="B241"/>
       <c r="C241"/>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242"/>
       <c r="B242"/>
       <c r="C242"/>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243"/>
       <c r="B243"/>
       <c r="C243"/>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244"/>
       <c r="B244"/>
       <c r="C244"/>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245"/>
       <c r="B245"/>
       <c r="C245"/>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246"/>
       <c r="B246"/>
       <c r="C246"/>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247"/>
       <c r="B247"/>
       <c r="C247"/>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248"/>
       <c r="B248"/>
       <c r="C248"/>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249"/>
       <c r="B249"/>
       <c r="C249"/>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250"/>
       <c r="B250"/>
       <c r="C250"/>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251"/>
       <c r="B251"/>
       <c r="C251"/>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252"/>
       <c r="B252"/>
       <c r="C252"/>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253"/>
       <c r="B253"/>
       <c r="C253"/>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254"/>
       <c r="B254"/>
       <c r="C254"/>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255"/>
       <c r="B255"/>
       <c r="C255"/>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256"/>
       <c r="B256"/>
       <c r="C256"/>
     </row>
-    <row r="257" spans="1:3" s="7" customFormat="1">
+    <row r="257" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A257"/>
       <c r="B257"/>
       <c r="C257"/>
     </row>
-    <row r="258" spans="1:3" s="7" customFormat="1">
+    <row r="258" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A258"/>
       <c r="B258"/>
       <c r="C258"/>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259"/>
       <c r="B259"/>
       <c r="C259"/>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260"/>
       <c r="B260"/>
       <c r="C260"/>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261"/>
       <c r="B261"/>
       <c r="C261"/>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262"/>
       <c r="B262"/>
       <c r="C262"/>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263"/>
       <c r="B263"/>
       <c r="C263"/>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264"/>
       <c r="B264"/>
       <c r="C264"/>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265"/>
       <c r="B265"/>
       <c r="C265"/>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266"/>
       <c r="B266"/>
       <c r="C266"/>
     </row>
-    <row r="267" spans="1:3" ht="14.5" customHeight="1">
+    <row r="267" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267"/>
       <c r="B267"/>
       <c r="C267"/>
     </row>
-    <row r="268" spans="1:3" ht="14.5" customHeight="1">
+    <row r="268" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268"/>
       <c r="B268"/>
       <c r="C268"/>
     </row>
-    <row r="269" spans="1:3" ht="14.5" customHeight="1">
+    <row r="269" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269"/>
       <c r="B269"/>
       <c r="C269"/>
     </row>
-    <row r="270" spans="1:3" ht="14.5" customHeight="1">
+    <row r="270" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270"/>
       <c r="B270"/>
       <c r="C270"/>
     </row>
-    <row r="271" spans="1:3" ht="14.5" customHeight="1">
+    <row r="271" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271"/>
       <c r="B271"/>
       <c r="C271"/>
     </row>
-    <row r="272" spans="1:3" ht="14.5" customHeight="1">
+    <row r="272" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272"/>
       <c r="B272"/>
       <c r="C272"/>
     </row>
-    <row r="273" spans="1:3" ht="14.5" customHeight="1">
+    <row r="273" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273"/>
       <c r="B273"/>
       <c r="C273"/>
     </row>
-    <row r="274" spans="1:3" ht="14.5" customHeight="1">
+    <row r="274" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274"/>
       <c r="B274"/>
       <c r="C274"/>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275"/>
       <c r="B275"/>
       <c r="C275"/>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276"/>
       <c r="B276"/>
       <c r="C276"/>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277"/>
       <c r="B277"/>
       <c r="C277"/>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278"/>
       <c r="B278"/>
       <c r="C278"/>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279"/>
       <c r="B279"/>
       <c r="C279"/>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280"/>
       <c r="B280"/>
       <c r="C280"/>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281"/>
       <c r="B281"/>
       <c r="C281"/>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282"/>
       <c r="B282"/>
       <c r="C282"/>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283"/>
       <c r="B283"/>
       <c r="C283"/>
     </row>
-    <row r="284" spans="1:3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284"/>
       <c r="B284"/>
       <c r="C284"/>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285"/>
       <c r="B285"/>
       <c r="C285"/>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286"/>
       <c r="B286"/>
       <c r="C286"/>
     </row>
-    <row r="287" spans="1:3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287"/>
       <c r="B287"/>
       <c r="C287"/>
     </row>
-    <row r="288" spans="1:3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288"/>
       <c r="B288"/>
       <c r="C288"/>
     </row>
-    <row r="289" spans="1:3" s="7" customFormat="1">
+    <row r="289" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A289"/>
       <c r="B289"/>
       <c r="C289"/>
     </row>
-    <row r="290" spans="1:3" s="7" customFormat="1">
+    <row r="290" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A290"/>
       <c r="B290"/>
       <c r="C290"/>
     </row>
-    <row r="291" spans="1:3" s="7" customFormat="1">
+    <row r="291" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A291"/>
       <c r="B291"/>
       <c r="C291"/>
     </row>
-    <row r="292" spans="1:3" s="7" customFormat="1">
+    <row r="292" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A292"/>
       <c r="B292"/>
       <c r="C292"/>
     </row>
-    <row r="293" spans="1:3" s="7" customFormat="1">
+    <row r="293" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A293"/>
       <c r="B293"/>
       <c r="C293"/>
     </row>
-    <row r="294" spans="1:3" s="7" customFormat="1">
+    <row r="294" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A294"/>
       <c r="B294"/>
       <c r="C294"/>
     </row>
-    <row r="295" spans="1:3" s="7" customFormat="1">
+    <row r="295" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A295"/>
       <c r="B295"/>
       <c r="C295"/>
     </row>
-    <row r="296" spans="1:3" s="7" customFormat="1">
+    <row r="296" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A296"/>
       <c r="B296"/>
       <c r="C296"/>
     </row>
-    <row r="297" spans="1:3" s="7" customFormat="1">
+    <row r="297" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A297"/>
       <c r="B297"/>
       <c r="C297"/>
     </row>
-    <row r="298" spans="1:3" s="7" customFormat="1">
+    <row r="298" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A298"/>
       <c r="B298"/>
       <c r="C298"/>
     </row>
-    <row r="299" spans="1:3" s="7" customFormat="1">
+    <row r="299" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A299"/>
       <c r="B299"/>
       <c r="C299"/>
     </row>
-    <row r="300" spans="1:3" s="7" customFormat="1">
+    <row r="300" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A300"/>
       <c r="B300"/>
       <c r="C300"/>
     </row>
-    <row r="301" spans="1:3" s="7" customFormat="1">
+    <row r="301" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A301"/>
       <c r="B301"/>
       <c r="C301"/>
     </row>
-    <row r="302" spans="1:3" s="7" customFormat="1">
+    <row r="302" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A302"/>
       <c r="B302"/>
       <c r="C302"/>
     </row>
-    <row r="303" spans="1:3" s="7" customFormat="1">
+    <row r="303" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A303"/>
       <c r="B303"/>
       <c r="C303"/>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304"/>
       <c r="B304"/>
       <c r="C304"/>
     </row>
-    <row r="305" spans="1:3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305"/>
       <c r="B305"/>
       <c r="C305"/>
     </row>
-    <row r="306" spans="1:3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306"/>
       <c r="B306"/>
       <c r="C306"/>
     </row>
-    <row r="307" spans="1:3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307"/>
       <c r="B307"/>
       <c r="C307"/>
     </row>
-    <row r="308" spans="1:3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308"/>
       <c r="B308"/>
       <c r="C308"/>
     </row>
-    <row r="309" spans="1:3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309"/>
       <c r="B309"/>
       <c r="C309"/>
     </row>
-    <row r="310" spans="1:3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310"/>
       <c r="B310"/>
       <c r="C310"/>
     </row>
-    <row r="311" spans="1:3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311"/>
       <c r="B311"/>
       <c r="C311"/>
     </row>
-    <row r="312" spans="1:3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312"/>
       <c r="B312"/>
       <c r="C312"/>
     </row>
-    <row r="313" spans="1:3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313"/>
       <c r="B313"/>
       <c r="C313"/>
     </row>
-    <row r="314" spans="1:3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314"/>
       <c r="B314"/>
       <c r="C314"/>
     </row>
-    <row r="315" spans="1:3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315"/>
       <c r="B315"/>
       <c r="C315"/>
     </row>
-    <row r="316" spans="1:3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316"/>
       <c r="B316"/>
       <c r="C316"/>
     </row>
-    <row r="317" spans="1:3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317"/>
       <c r="B317"/>
       <c r="C317"/>
     </row>
-    <row r="318" spans="1:3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318"/>
       <c r="B318"/>
       <c r="C318"/>
     </row>
-    <row r="319" spans="1:3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319"/>
       <c r="B319"/>
       <c r="C319"/>
     </row>
-    <row r="320" spans="1:3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320"/>
       <c r="B320"/>
       <c r="C320"/>
     </row>
-    <row r="321" spans="1:3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321"/>
       <c r="B321"/>
       <c r="C321"/>
     </row>
-    <row r="322" spans="1:3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322"/>
       <c r="B322"/>
       <c r="C322"/>
     </row>
-    <row r="323" spans="1:3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323"/>
       <c r="B323"/>
       <c r="C323"/>
     </row>
-    <row r="324" spans="1:3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324"/>
       <c r="B324"/>
       <c r="C324"/>
     </row>
-    <row r="325" spans="1:3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325"/>
       <c r="B325"/>
       <c r="C325"/>
     </row>
-    <row r="326" spans="1:3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326"/>
       <c r="B326"/>
       <c r="C326"/>
     </row>
-    <row r="327" spans="1:3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327"/>
       <c r="B327"/>
       <c r="C327"/>
     </row>
-    <row r="328" spans="1:3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328"/>
       <c r="B328"/>
       <c r="C328"/>
     </row>
-    <row r="329" spans="1:3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329"/>
       <c r="B329"/>
       <c r="C329"/>
     </row>
-    <row r="330" spans="1:3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330"/>
       <c r="B330"/>
       <c r="C330"/>
     </row>
-    <row r="331" spans="1:3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331"/>
       <c r="B331"/>
       <c r="C331"/>
     </row>
-    <row r="332" spans="1:3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332"/>
       <c r="B332"/>
       <c r="C332"/>
     </row>
-    <row r="333" spans="1:3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333"/>
       <c r="B333"/>
       <c r="C333"/>
     </row>
-    <row r="334" spans="1:3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334"/>
       <c r="B334"/>
       <c r="C334"/>
     </row>
-    <row r="335" spans="1:3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335"/>
       <c r="B335"/>
       <c r="C335"/>
     </row>
-    <row r="336" spans="1:3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336"/>
       <c r="B336"/>
       <c r="C336"/>
     </row>
-    <row r="337" spans="1:3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337"/>
       <c r="B337"/>
       <c r="C337"/>
     </row>
-    <row r="338" spans="1:3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338"/>
       <c r="B338"/>
       <c r="C338"/>
     </row>
-    <row r="339" spans="1:3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339"/>
       <c r="B339"/>
       <c r="C339"/>
     </row>
-    <row r="340" spans="1:3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340"/>
       <c r="B340"/>
       <c r="C340"/>
     </row>
-    <row r="341" spans="1:3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341"/>
       <c r="B341"/>
       <c r="C341"/>
     </row>
-    <row r="342" spans="1:3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342"/>
       <c r="B342"/>
       <c r="C342"/>
     </row>
-    <row r="343" spans="1:3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343"/>
       <c r="B343"/>
       <c r="C343"/>
     </row>
-    <row r="344" spans="1:3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344"/>
       <c r="B344"/>
       <c r="C344"/>
     </row>
-    <row r="345" spans="1:3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345"/>
       <c r="B345"/>
       <c r="C345"/>
     </row>
-    <row r="346" spans="1:3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346"/>
       <c r="B346"/>
       <c r="C346"/>
     </row>
-    <row r="347" spans="1:3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347"/>
       <c r="B347"/>
       <c r="C347"/>
     </row>
-    <row r="348" spans="1:3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348"/>
       <c r="B348"/>
       <c r="C348"/>
     </row>
-    <row r="349" spans="1:3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349"/>
       <c r="B349"/>
       <c r="C349"/>
     </row>
-    <row r="350" spans="1:3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350"/>
       <c r="B350"/>
       <c r="C350"/>
     </row>
-    <row r="351" spans="1:3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351"/>
       <c r="B351"/>
       <c r="C351"/>
     </row>
-    <row r="352" spans="1:3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352"/>
       <c r="B352"/>
       <c r="C352"/>
     </row>
-    <row r="353" spans="1:3" s="7" customFormat="1">
+    <row r="353" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A353"/>
       <c r="B353"/>
       <c r="C353"/>
     </row>
-    <row r="354" spans="1:3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354"/>
       <c r="B354"/>
       <c r="C354"/>
     </row>
-    <row r="355" spans="1:3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355"/>
       <c r="B355"/>
       <c r="C355"/>
     </row>
-    <row r="356" spans="1:3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356"/>
       <c r="B356"/>
       <c r="C356"/>
     </row>
-    <row r="357" spans="1:3">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357"/>
       <c r="B357"/>
       <c r="C357"/>
     </row>
-    <row r="358" spans="1:3">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358"/>
       <c r="B358"/>
       <c r="C358"/>
     </row>
-    <row r="359" spans="1:3">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359"/>
       <c r="B359"/>
       <c r="C359"/>
     </row>
-    <row r="360" spans="1:3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360"/>
       <c r="B360"/>
       <c r="C360"/>
     </row>
-    <row r="361" spans="1:3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361"/>
       <c r="B361"/>
       <c r="C361"/>
     </row>
-    <row r="362" spans="1:3" s="7" customFormat="1">
+    <row r="362" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A362"/>
       <c r="B362"/>
       <c r="C362"/>
     </row>
-    <row r="363" spans="1:3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363"/>
       <c r="B363"/>
       <c r="C363"/>
     </row>
-    <row r="364" spans="1:3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364"/>
       <c r="B364"/>
       <c r="C364"/>
     </row>
-    <row r="365" spans="1:3">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365"/>
       <c r="B365"/>
       <c r="C365"/>
     </row>
-    <row r="366" spans="1:3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366"/>
       <c r="B366"/>
       <c r="C366"/>
     </row>
-    <row r="367" spans="1:3">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367"/>
       <c r="B367"/>
       <c r="C367"/>
     </row>
-    <row r="368" spans="1:3">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368"/>
       <c r="B368"/>
       <c r="C368"/>
     </row>
-    <row r="369" spans="1:3">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369"/>
       <c r="B369"/>
       <c r="C369"/>
     </row>
-    <row r="370" spans="1:3">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370"/>
       <c r="B370"/>
       <c r="C370"/>
     </row>
-    <row r="371" spans="1:3">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371"/>
       <c r="B371"/>
       <c r="C371"/>
     </row>
-    <row r="372" spans="1:3">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372"/>
       <c r="B372"/>
       <c r="C372"/>
     </row>
-    <row r="373" spans="1:3">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373"/>
       <c r="B373"/>
       <c r="C373"/>
     </row>
-    <row r="374" spans="1:3">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374"/>
       <c r="B374"/>
       <c r="C374"/>
     </row>
-    <row r="375" spans="1:3">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375"/>
       <c r="B375"/>
       <c r="C375"/>
     </row>
-    <row r="376" spans="1:3">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376"/>
       <c r="B376"/>
       <c r="C376"/>
     </row>
-    <row r="377" spans="1:3">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377"/>
       <c r="B377"/>
       <c r="C377"/>
     </row>
-    <row r="378" spans="1:3">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378"/>
       <c r="B378"/>
       <c r="C378"/>
     </row>
-    <row r="379" spans="1:3">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379"/>
       <c r="B379"/>
       <c r="C379"/>
     </row>
-    <row r="380" spans="1:3">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380"/>
       <c r="B380"/>
       <c r="C380"/>
     </row>
-    <row r="381" spans="1:3">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381"/>
       <c r="B381"/>
       <c r="C381"/>
     </row>
-    <row r="382" spans="1:3">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382"/>
       <c r="B382"/>
       <c r="C382"/>
     </row>
-    <row r="383" spans="1:3">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383"/>
       <c r="B383"/>
       <c r="C383"/>
     </row>
-    <row r="384" spans="1:3">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384"/>
       <c r="B384"/>
       <c r="C384"/>
     </row>
-    <row r="385" spans="1:3">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385"/>
       <c r="B385"/>
       <c r="C385"/>
     </row>
-    <row r="386" spans="1:3">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386"/>
       <c r="B386"/>
       <c r="C386"/>
     </row>
-    <row r="387" spans="1:3">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387"/>
       <c r="B387"/>
       <c r="C387"/>
     </row>
-    <row r="388" spans="1:3" s="7" customFormat="1">
+    <row r="388" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A388"/>
       <c r="B388"/>
       <c r="C388"/>
     </row>
-    <row r="389" spans="1:3" s="7" customFormat="1">
+    <row r="389" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A389"/>
       <c r="B389"/>
       <c r="C389"/>
     </row>
-    <row r="390" spans="1:3" s="7" customFormat="1">
+    <row r="390" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A390"/>
       <c r="B390"/>
       <c r="C390"/>
     </row>
-    <row r="391" spans="1:3" s="7" customFormat="1">
+    <row r="391" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A391"/>
       <c r="B391"/>
       <c r="C391"/>
     </row>
-    <row r="392" spans="1:3" s="7" customFormat="1">
+    <row r="392" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A392"/>
       <c r="B392"/>
       <c r="C392"/>
     </row>
-    <row r="393" spans="1:3" s="7" customFormat="1">
+    <row r="393" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A393"/>
       <c r="B393"/>
       <c r="C393"/>
     </row>
-    <row r="394" spans="1:3" s="7" customFormat="1">
+    <row r="394" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A394"/>
       <c r="B394"/>
       <c r="C394"/>
     </row>
-    <row r="395" spans="1:3" s="7" customFormat="1">
+    <row r="395" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A395"/>
       <c r="B395"/>
       <c r="C395"/>
     </row>
-    <row r="396" spans="1:3" s="7" customFormat="1">
+    <row r="396" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A396"/>
       <c r="B396"/>
       <c r="C396"/>
     </row>
-    <row r="397" spans="1:3" s="7" customFormat="1">
+    <row r="397" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A397"/>
       <c r="B397"/>
       <c r="C397"/>
     </row>
-    <row r="398" spans="1:3">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398"/>
       <c r="B398"/>
       <c r="C398"/>
     </row>
-    <row r="399" spans="1:3">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399"/>
       <c r="B399"/>
       <c r="C399"/>
     </row>
-    <row r="400" spans="1:3">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A400"/>
       <c r="B400"/>
       <c r="C400"/>
     </row>
-    <row r="401" spans="1:3">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A401"/>
       <c r="B401"/>
       <c r="C401"/>
     </row>
-    <row r="402" spans="1:3">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A402"/>
       <c r="B402"/>
       <c r="C402"/>
     </row>
-    <row r="403" spans="1:3">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403"/>
       <c r="B403"/>
       <c r="C403"/>
     </row>
-    <row r="404" spans="1:3">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404"/>
       <c r="B404"/>
       <c r="C404"/>
     </row>
-    <row r="405" spans="1:3">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A405"/>
       <c r="B405"/>
       <c r="C405"/>
     </row>
-    <row r="406" spans="1:3">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406"/>
       <c r="B406"/>
       <c r="C406"/>
     </row>
-    <row r="407" spans="1:3">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A407"/>
       <c r="B407"/>
       <c r="C407"/>
     </row>
-    <row r="408" spans="1:3">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A408"/>
       <c r="B408"/>
       <c r="C408"/>
     </row>
-    <row r="409" spans="1:3">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A409"/>
       <c r="B409"/>
       <c r="C409"/>
     </row>
-    <row r="410" spans="1:3">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A410"/>
       <c r="B410"/>
       <c r="C410"/>
     </row>
-    <row r="411" spans="1:3">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A411"/>
       <c r="B411"/>
       <c r="C411"/>
     </row>
-    <row r="412" spans="1:3">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A412"/>
       <c r="B412"/>
       <c r="C412"/>
     </row>
-    <row r="413" spans="1:3">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A413"/>
       <c r="B413"/>
       <c r="C413"/>
     </row>
-    <row r="414" spans="1:3">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A414"/>
       <c r="B414"/>
       <c r="C414"/>
     </row>
-    <row r="415" spans="1:3">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A415"/>
       <c r="B415"/>
       <c r="C415"/>
     </row>
-    <row r="416" spans="1:3">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A416"/>
       <c r="B416"/>
       <c r="C416"/>
     </row>
-    <row r="417" spans="1:3">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A417"/>
       <c r="B417"/>
       <c r="C417"/>
     </row>
-    <row r="418" spans="1:3">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A418"/>
       <c r="B418"/>
       <c r="C418"/>
     </row>
-    <row r="419" spans="1:3">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A419"/>
       <c r="B419"/>
       <c r="C419"/>
     </row>
-    <row r="420" spans="1:3">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A420"/>
       <c r="B420"/>
       <c r="C420"/>
     </row>
-    <row r="421" spans="1:3">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A421"/>
       <c r="B421"/>
       <c r="C421"/>
     </row>
-    <row r="422" spans="1:3">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A422"/>
       <c r="B422"/>
       <c r="C422"/>
     </row>
-    <row r="423" spans="1:3">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A423"/>
       <c r="B423"/>
       <c r="C423"/>
     </row>
-    <row r="424" spans="1:3">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A424"/>
       <c r="B424"/>
       <c r="C424"/>
     </row>
-    <row r="425" spans="1:3">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A425"/>
       <c r="B425"/>
       <c r="C425"/>
     </row>
-    <row r="426" spans="1:3">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A426"/>
       <c r="B426"/>
       <c r="C426"/>
     </row>
-    <row r="427" spans="1:3">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A427"/>
       <c r="B427"/>
       <c r="C427"/>
     </row>
-    <row r="428" spans="1:3">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A428"/>
       <c r="B428"/>
       <c r="C428"/>
     </row>
-    <row r="429" spans="1:3">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A429"/>
       <c r="B429"/>
       <c r="C429"/>
     </row>
-    <row r="430" spans="1:3">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A430"/>
       <c r="B430"/>
       <c r="C430"/>
     </row>
-    <row r="431" spans="1:3">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A431"/>
       <c r="B431"/>
       <c r="C431"/>
     </row>
-    <row r="432" spans="1:3" ht="14.5" customHeight="1">
+    <row r="432" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432"/>
       <c r="B432"/>
       <c r="C432"/>
     </row>
-    <row r="433" spans="1:3" ht="14.5" customHeight="1">
+    <row r="433" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433"/>
       <c r="B433"/>
       <c r="C433"/>
     </row>
-    <row r="434" spans="1:3" ht="14.5" customHeight="1">
+    <row r="434" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434"/>
       <c r="B434"/>
       <c r="C434"/>
     </row>
-    <row r="435" spans="1:3" ht="14.5" customHeight="1">
+    <row r="435" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435"/>
       <c r="B435"/>
       <c r="C435"/>
     </row>
-    <row r="436" spans="1:3" ht="14.5" customHeight="1">
+    <row r="436" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436"/>
       <c r="B436"/>
       <c r="C436"/>
     </row>
-    <row r="437" spans="1:3" ht="14.5" customHeight="1">
+    <row r="437" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437"/>
       <c r="B437"/>
       <c r="C437"/>
     </row>
-    <row r="438" spans="1:3" ht="14.5" customHeight="1">
+    <row r="438" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438"/>
       <c r="B438"/>
       <c r="C438"/>
     </row>
-    <row r="439" spans="1:3" ht="14.5" customHeight="1">
+    <row r="439" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439"/>
       <c r="B439"/>
       <c r="C439"/>
     </row>
-    <row r="440" spans="1:3" ht="14.5" customHeight="1">
+    <row r="440" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440"/>
       <c r="B440"/>
       <c r="C440"/>
     </row>
-    <row r="441" spans="1:3" ht="14.5" customHeight="1">
+    <row r="441" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441"/>
       <c r="B441"/>
       <c r="C441"/>
     </row>
-    <row r="442" spans="1:3" ht="14.5" customHeight="1">
+    <row r="442" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442"/>
       <c r="B442"/>
       <c r="C442"/>
     </row>
-    <row r="443" spans="1:3" ht="14.5" customHeight="1">
+    <row r="443" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443"/>
       <c r="B443"/>
       <c r="C443"/>
     </row>
-    <row r="444" spans="1:3">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A444"/>
       <c r="B444"/>
       <c r="C444"/>
     </row>
-    <row r="445" spans="1:3">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A445"/>
       <c r="B445"/>
       <c r="C445"/>
     </row>
-    <row r="446" spans="1:3">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A446"/>
       <c r="B446"/>
       <c r="C446"/>
     </row>
-    <row r="447" spans="1:3">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A447"/>
       <c r="B447"/>
       <c r="C447"/>
     </row>
-    <row r="448" spans="1:3">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A448"/>
       <c r="B448"/>
       <c r="C448"/>
     </row>
-    <row r="449" spans="1:3">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A449"/>
       <c r="B449"/>
       <c r="C449"/>
     </row>
-    <row r="450" spans="1:3">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A450"/>
       <c r="B450"/>
       <c r="C450"/>
     </row>
-    <row r="451" spans="1:3">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A451"/>
       <c r="B451"/>
       <c r="C451"/>
     </row>
-    <row r="452" spans="1:3">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A452"/>
       <c r="B452"/>
       <c r="C452"/>
     </row>
-    <row r="453" spans="1:3">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A453"/>
       <c r="B453"/>
       <c r="C453"/>
     </row>
-    <row r="454" spans="1:3">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A454"/>
       <c r="B454"/>
       <c r="C454"/>
     </row>
-    <row r="455" spans="1:3">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A455"/>
       <c r="B455"/>
       <c r="C455"/>
     </row>
-    <row r="456" spans="1:3">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A456"/>
       <c r="B456"/>
       <c r="C456"/>
     </row>
-    <row r="457" spans="1:3">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A457"/>
       <c r="B457"/>
       <c r="C457"/>
     </row>
-    <row r="458" spans="1:3">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A458"/>
       <c r="B458"/>
       <c r="C458"/>
     </row>
-    <row r="459" spans="1:3">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A459"/>
       <c r="B459"/>
       <c r="C459"/>
     </row>
-    <row r="460" spans="1:3">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A460"/>
       <c r="B460"/>
       <c r="C460"/>
     </row>
-    <row r="461" spans="1:3">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A461"/>
       <c r="B461"/>
       <c r="C461"/>
     </row>
-    <row r="462" spans="1:3">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A462"/>
       <c r="B462"/>
       <c r="C462"/>
     </row>
-    <row r="463" spans="1:3">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A463"/>
       <c r="B463"/>
       <c r="C463"/>
     </row>
-    <row r="464" spans="1:3">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A464"/>
       <c r="B464"/>
       <c r="C464"/>
     </row>
-    <row r="465" spans="1:3">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A465"/>
       <c r="B465"/>
       <c r="C465"/>
     </row>
-    <row r="466" spans="1:3">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A466"/>
       <c r="B466"/>
       <c r="C466"/>
     </row>
-    <row r="467" spans="1:3" s="6" customFormat="1">
+    <row r="467" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A467"/>
       <c r="B467"/>
       <c r="C467"/>
     </row>
-    <row r="468" spans="1:3" s="6" customFormat="1">
+    <row r="468" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A468"/>
       <c r="B468"/>
       <c r="C468"/>
     </row>
-    <row r="469" spans="1:3" s="6" customFormat="1">
+    <row r="469" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A469"/>
       <c r="B469"/>
       <c r="C469"/>
     </row>
-    <row r="470" spans="1:3" s="6" customFormat="1">
+    <row r="470" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A470"/>
       <c r="B470"/>
       <c r="C470"/>
     </row>
-    <row r="471" spans="1:3" s="6" customFormat="1">
+    <row r="471" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A471"/>
       <c r="B471"/>
       <c r="C471"/>
     </row>
-    <row r="472" spans="1:3" s="6" customFormat="1">
+    <row r="472" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A472"/>
       <c r="B472"/>
       <c r="C472"/>
     </row>
-    <row r="473" spans="1:3" s="6" customFormat="1">
+    <row r="473" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A473"/>
       <c r="B473"/>
       <c r="C473"/>
     </row>
-    <row r="474" spans="1:3" s="6" customFormat="1">
+    <row r="474" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A474"/>
       <c r="B474"/>
       <c r="C474"/>
     </row>
-    <row r="475" spans="1:3" s="6" customFormat="1">
+    <row r="475" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A475"/>
       <c r="B475"/>
       <c r="C475"/>
     </row>
-    <row r="476" spans="1:3" s="6" customFormat="1">
+    <row r="476" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A476"/>
       <c r="B476"/>
       <c r="C476"/>
     </row>
-    <row r="477" spans="1:3" s="6" customFormat="1">
+    <row r="477" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A477"/>
       <c r="B477"/>
       <c r="C477"/>
     </row>
-    <row r="478" spans="1:3" s="6" customFormat="1">
+    <row r="478" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A478"/>
       <c r="B478"/>
       <c r="C478"/>
     </row>
-    <row r="479" spans="1:3" s="6" customFormat="1">
+    <row r="479" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A479"/>
       <c r="B479"/>
       <c r="C479"/>
     </row>
-    <row r="480" spans="1:3" s="6" customFormat="1">
+    <row r="480" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A480"/>
       <c r="B480"/>
       <c r="C480"/>
     </row>
-    <row r="481" spans="1:3" s="6" customFormat="1">
+    <row r="481" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A481"/>
       <c r="B481"/>
       <c r="C481"/>
     </row>
-    <row r="482" spans="1:3" s="6" customFormat="1">
+    <row r="482" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A482"/>
       <c r="B482"/>
       <c r="C482"/>
     </row>
-    <row r="483" spans="1:3" s="6" customFormat="1">
+    <row r="483" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A483"/>
       <c r="B483"/>
       <c r="C483"/>
     </row>
-    <row r="484" spans="1:3" s="6" customFormat="1">
+    <row r="484" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A484"/>
       <c r="B484"/>
       <c r="C484"/>
     </row>
-    <row r="485" spans="1:3" s="6" customFormat="1">
+    <row r="485" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A485"/>
       <c r="B485"/>
       <c r="C485"/>
     </row>
-    <row r="486" spans="1:3" s="6" customFormat="1">
+    <row r="486" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A486"/>
       <c r="B486"/>
       <c r="C486"/>
     </row>
-    <row r="487" spans="1:3" s="6" customFormat="1">
+    <row r="487" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A487"/>
       <c r="B487"/>
       <c r="C487"/>
     </row>
-    <row r="488" spans="1:3" s="6" customFormat="1">
+    <row r="488" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A488"/>
       <c r="B488"/>
       <c r="C488"/>
     </row>
-    <row r="489" spans="1:3" s="6" customFormat="1">
+    <row r="489" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A489"/>
       <c r="B489"/>
       <c r="C489"/>
     </row>
-    <row r="490" spans="1:3" s="6" customFormat="1">
+    <row r="490" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A490"/>
       <c r="B490"/>
       <c r="C490"/>
     </row>
-    <row r="491" spans="1:3" s="6" customFormat="1">
+    <row r="491" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A491"/>
       <c r="B491"/>
       <c r="C491"/>
     </row>
-    <row r="492" spans="1:3" s="6" customFormat="1">
+    <row r="492" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A492"/>
       <c r="B492"/>
       <c r="C492"/>
     </row>
-    <row r="493" spans="1:3" s="6" customFormat="1">
+    <row r="493" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A493"/>
       <c r="B493"/>
       <c r="C493"/>
     </row>
-    <row r="494" spans="1:3" s="6" customFormat="1">
+    <row r="494" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A494"/>
       <c r="B494"/>
       <c r="C494"/>
     </row>
-    <row r="495" spans="1:3" s="6" customFormat="1">
+    <row r="495" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A495"/>
       <c r="B495"/>
       <c r="C495"/>
     </row>
-    <row r="496" spans="1:3" s="6" customFormat="1">
+    <row r="496" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A496"/>
       <c r="B496"/>
       <c r="C496"/>
     </row>
-    <row r="497" spans="1:3" s="6" customFormat="1">
+    <row r="497" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A497"/>
       <c r="B497"/>
       <c r="C497"/>
     </row>
-    <row r="498" spans="1:3" s="6" customFormat="1">
+    <row r="498" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A498"/>
       <c r="B498"/>
       <c r="C498"/>
     </row>
-    <row r="499" spans="1:3" s="6" customFormat="1">
+    <row r="499" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A499"/>
       <c r="B499"/>
       <c r="C499"/>
     </row>
-    <row r="500" spans="1:3" s="6" customFormat="1">
+    <row r="500" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A500"/>
       <c r="B500"/>
       <c r="C500"/>
     </row>
-    <row r="501" spans="1:3" s="6" customFormat="1">
+    <row r="501" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A501"/>
       <c r="B501"/>
       <c r="C501"/>
     </row>
-    <row r="502" spans="1:3" s="6" customFormat="1">
+    <row r="502" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A502"/>
       <c r="B502"/>
       <c r="C502"/>
     </row>
-    <row r="503" spans="1:3" s="6" customFormat="1">
+    <row r="503" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A503"/>
       <c r="B503"/>
       <c r="C503"/>
     </row>
-    <row r="504" spans="1:3" s="6" customFormat="1">
+    <row r="504" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A504"/>
       <c r="B504"/>
       <c r="C504"/>
     </row>
-    <row r="505" spans="1:3" s="6" customFormat="1">
+    <row r="505" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A505"/>
       <c r="B505"/>
       <c r="C505"/>
     </row>
-    <row r="506" spans="1:3" s="6" customFormat="1">
+    <row r="506" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A506"/>
       <c r="B506"/>
       <c r="C506"/>
     </row>
-    <row r="507" spans="1:3" s="6" customFormat="1">
+    <row r="507" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A507"/>
       <c r="B507"/>
       <c r="C507"/>
     </row>
-    <row r="508" spans="1:3" s="6" customFormat="1">
+    <row r="508" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A508"/>
       <c r="B508"/>
       <c r="C508"/>
     </row>
-    <row r="509" spans="1:3" s="6" customFormat="1">
+    <row r="509" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A509"/>
       <c r="B509"/>
       <c r="C509"/>
     </row>
-    <row r="510" spans="1:3" s="6" customFormat="1">
+    <row r="510" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A510"/>
       <c r="B510"/>
       <c r="C510"/>
     </row>
-    <row r="511" spans="1:3" s="6" customFormat="1">
+    <row r="511" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A511"/>
       <c r="B511"/>
       <c r="C511"/>
     </row>
-    <row r="512" spans="1:3" s="6" customFormat="1">
+    <row r="512" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A512"/>
       <c r="B512"/>
       <c r="C512"/>
     </row>
-    <row r="513" spans="1:3" s="6" customFormat="1">
+    <row r="513" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A513"/>
       <c r="B513"/>
       <c r="C513"/>
     </row>
-    <row r="514" spans="1:3" s="6" customFormat="1">
+    <row r="514" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A514"/>
       <c r="B514"/>
       <c r="C514"/>
     </row>
-    <row r="515" spans="1:3" s="6" customFormat="1">
+    <row r="515" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A515"/>
       <c r="B515"/>
       <c r="C515"/>
     </row>
-    <row r="516" spans="1:3" s="6" customFormat="1">
+    <row r="516" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A516"/>
       <c r="B516"/>
       <c r="C516"/>
     </row>
-    <row r="517" spans="1:3" s="6" customFormat="1">
+    <row r="517" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A517"/>
       <c r="B517"/>
       <c r="C517"/>
     </row>
-    <row r="518" spans="1:3" s="6" customFormat="1">
+    <row r="518" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A518"/>
       <c r="B518"/>
       <c r="C518"/>
     </row>
-    <row r="519" spans="1:3" s="6" customFormat="1">
+    <row r="519" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A519"/>
       <c r="B519"/>
       <c r="C519"/>
     </row>
-    <row r="520" spans="1:3" s="6" customFormat="1">
+    <row r="520" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A520"/>
       <c r="B520"/>
       <c r="C520"/>
     </row>
-    <row r="521" spans="1:3" s="6" customFormat="1">
+    <row r="521" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A521"/>
       <c r="B521"/>
       <c r="C521"/>
     </row>
-    <row r="522" spans="1:3" s="6" customFormat="1">
+    <row r="522" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A522"/>
       <c r="B522"/>
       <c r="C522"/>
     </row>
-    <row r="523" spans="1:3" s="6" customFormat="1">
+    <row r="523" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A523"/>
       <c r="B523"/>
       <c r="C523"/>
     </row>
-    <row r="524" spans="1:3" s="6" customFormat="1">
+    <row r="524" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A524"/>
       <c r="B524"/>
       <c r="C524"/>
     </row>
-    <row r="525" spans="1:3" s="6" customFormat="1">
+    <row r="525" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A525"/>
       <c r="B525"/>
       <c r="C525"/>
     </row>
-    <row r="526" spans="1:3" s="6" customFormat="1">
+    <row r="526" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A526"/>
       <c r="B526"/>
       <c r="C526"/>
     </row>
-    <row r="527" spans="1:3" s="6" customFormat="1">
+    <row r="527" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A527"/>
       <c r="B527"/>
       <c r="C527"/>
     </row>
-    <row r="528" spans="1:3" s="6" customFormat="1">
+    <row r="528" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A528"/>
       <c r="B528"/>
       <c r="C528"/>
     </row>
-    <row r="529" spans="1:3" s="6" customFormat="1">
+    <row r="529" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A529"/>
       <c r="B529"/>
       <c r="C529"/>
     </row>
-    <row r="530" spans="1:3" s="6" customFormat="1">
+    <row r="530" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A530"/>
       <c r="B530"/>
       <c r="C530"/>
     </row>
-    <row r="531" spans="1:3" s="6" customFormat="1">
+    <row r="531" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A531"/>
       <c r="B531"/>
       <c r="C531"/>
     </row>
-    <row r="532" spans="1:3" s="6" customFormat="1">
+    <row r="532" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A532"/>
       <c r="B532"/>
       <c r="C532"/>
     </row>
-    <row r="533" spans="1:3" s="6" customFormat="1">
+    <row r="533" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A533"/>
       <c r="B533"/>
       <c r="C533"/>
     </row>
-    <row r="534" spans="1:3" s="6" customFormat="1">
+    <row r="534" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A534"/>
       <c r="B534"/>
       <c r="C534"/>
     </row>
-    <row r="535" spans="1:3" s="6" customFormat="1">
+    <row r="535" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A535"/>
       <c r="B535"/>
       <c r="C535"/>
     </row>
-    <row r="536" spans="1:3" s="6" customFormat="1">
+    <row r="536" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A536"/>
       <c r="B536"/>
       <c r="C536"/>
     </row>
-    <row r="537" spans="1:3" s="6" customFormat="1">
+    <row r="537" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A537"/>
       <c r="B537"/>
       <c r="C537"/>
     </row>
-    <row r="538" spans="1:3" s="6" customFormat="1">
+    <row r="538" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A538"/>
       <c r="B538"/>
       <c r="C538"/>
     </row>
-    <row r="539" spans="1:3" s="6" customFormat="1">
+    <row r="539" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A539"/>
       <c r="B539"/>
       <c r="C539"/>
     </row>
-    <row r="540" spans="1:3" s="6" customFormat="1">
+    <row r="540" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A540"/>
       <c r="B540"/>
       <c r="C540"/>
     </row>
-    <row r="541" spans="1:3" s="6" customFormat="1">
+    <row r="541" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A541"/>
       <c r="B541"/>
       <c r="C541"/>
     </row>
-    <row r="542" spans="1:3" s="6" customFormat="1">
+    <row r="542" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A542"/>
       <c r="B542"/>
       <c r="C542"/>
     </row>
-    <row r="543" spans="1:3" s="6" customFormat="1">
+    <row r="543" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A543"/>
       <c r="B543"/>
       <c r="C543"/>
     </row>
-    <row r="544" spans="1:3" s="6" customFormat="1">
+    <row r="544" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A544"/>
       <c r="B544"/>
       <c r="C544"/>
     </row>
-    <row r="545" spans="1:3" s="6" customFormat="1">
+    <row r="545" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A545"/>
       <c r="B545"/>
       <c r="C545"/>
     </row>
-    <row r="546" spans="1:3" s="6" customFormat="1">
+    <row r="546" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A546"/>
       <c r="B546"/>
       <c r="C546"/>
     </row>
-    <row r="547" spans="1:3" s="6" customFormat="1">
+    <row r="547" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A547"/>
       <c r="B547"/>
       <c r="C547"/>
     </row>
-    <row r="548" spans="1:3" s="6" customFormat="1">
+    <row r="548" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A548"/>
       <c r="B548"/>
       <c r="C548"/>
     </row>
-    <row r="549" spans="1:3" s="6" customFormat="1">
+    <row r="549" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A549"/>
       <c r="B549"/>
       <c r="C549"/>
     </row>
-    <row r="550" spans="1:3" s="6" customFormat="1">
+    <row r="550" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A550"/>
       <c r="B550"/>
       <c r="C550"/>
     </row>
-    <row r="551" spans="1:3" s="6" customFormat="1">
+    <row r="551" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A551"/>
       <c r="B551"/>
       <c r="C551"/>
     </row>
-    <row r="552" spans="1:3" s="6" customFormat="1">
+    <row r="552" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A552"/>
       <c r="B552"/>
       <c r="C552"/>
     </row>
-    <row r="553" spans="1:3" s="6" customFormat="1">
+    <row r="553" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A553"/>
       <c r="B553"/>
       <c r="C553"/>
     </row>
-    <row r="554" spans="1:3" s="6" customFormat="1">
+    <row r="554" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A554"/>
       <c r="B554"/>
       <c r="C554"/>
     </row>
-    <row r="555" spans="1:3" s="6" customFormat="1">
+    <row r="555" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A555"/>
       <c r="B555"/>
       <c r="C555"/>
     </row>
-    <row r="556" spans="1:3" s="6" customFormat="1">
+    <row r="556" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A556"/>
       <c r="B556"/>
       <c r="C556"/>
     </row>
-    <row r="557" spans="1:3" s="8" customFormat="1">
+    <row r="557" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A557"/>
       <c r="B557"/>
       <c r="C557"/>
     </row>
-    <row r="558" spans="1:3" s="8" customFormat="1">
+    <row r="558" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A558"/>
       <c r="B558"/>
       <c r="C558"/>
     </row>
-    <row r="559" spans="1:3" s="8" customFormat="1">
+    <row r="559" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A559"/>
       <c r="B559"/>
       <c r="C559"/>
     </row>
-    <row r="560" spans="1:3" s="8" customFormat="1">
+    <row r="560" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A560"/>
       <c r="B560"/>
       <c r="C560"/>
     </row>
-    <row r="561" spans="1:3" s="8" customFormat="1">
+    <row r="561" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A561"/>
       <c r="B561"/>
       <c r="C561"/>
     </row>
-    <row r="562" spans="1:3" s="8" customFormat="1">
+    <row r="562" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A562"/>
       <c r="B562"/>
       <c r="C562"/>
     </row>
-    <row r="563" spans="1:3" s="8" customFormat="1">
+    <row r="563" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A563"/>
       <c r="B563"/>
       <c r="C563"/>
     </row>
-    <row r="564" spans="1:3" s="8" customFormat="1">
+    <row r="564" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A564"/>
       <c r="B564"/>
       <c r="C564"/>
     </row>
-    <row r="565" spans="1:3" s="8" customFormat="1">
+    <row r="565" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A565"/>
       <c r="B565"/>
       <c r="C565"/>
     </row>
-    <row r="566" spans="1:3" s="8" customFormat="1">
+    <row r="566" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A566"/>
       <c r="B566"/>
       <c r="C566"/>
     </row>
-    <row r="567" spans="1:3" s="8" customFormat="1">
+    <row r="567" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A567"/>
       <c r="B567"/>
       <c r="C567"/>
     </row>
-    <row r="568" spans="1:3" s="8" customFormat="1">
+    <row r="568" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A568"/>
       <c r="B568"/>
       <c r="C568"/>
     </row>
-    <row r="569" spans="1:3" s="8" customFormat="1">
+    <row r="569" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A569"/>
       <c r="B569"/>
       <c r="C569"/>
     </row>
-    <row r="570" spans="1:3" s="8" customFormat="1">
+    <row r="570" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A570"/>
       <c r="B570"/>
       <c r="C570"/>
     </row>
-    <row r="571" spans="1:3" s="8" customFormat="1">
+    <row r="571" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A571"/>
       <c r="B571"/>
       <c r="C571"/>
     </row>
-    <row r="572" spans="1:3" s="8" customFormat="1">
+    <row r="572" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A572"/>
       <c r="B572"/>
       <c r="C572"/>
     </row>
-    <row r="573" spans="1:3" s="8" customFormat="1">
+    <row r="573" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A573"/>
       <c r="B573"/>
       <c r="C573"/>
     </row>
-    <row r="574" spans="1:3" s="8" customFormat="1">
+    <row r="574" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A574"/>
       <c r="B574"/>
       <c r="C574"/>
     </row>
-    <row r="575" spans="1:3" s="8" customFormat="1">
+    <row r="575" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A575"/>
       <c r="B575"/>
       <c r="C575"/>
     </row>
-    <row r="576" spans="1:3" s="8" customFormat="1">
+    <row r="576" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A576"/>
       <c r="B576"/>
       <c r="C576"/>
     </row>
-    <row r="577" spans="1:3" s="8" customFormat="1">
+    <row r="577" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A577"/>
       <c r="B577"/>
       <c r="C577"/>
     </row>
-    <row r="578" spans="1:3" s="8" customFormat="1">
+    <row r="578" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A578"/>
       <c r="B578"/>
       <c r="C578"/>
     </row>
-    <row r="579" spans="1:3" s="8" customFormat="1">
+    <row r="579" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A579"/>
       <c r="B579"/>
       <c r="C579"/>
     </row>
-    <row r="580" spans="1:3" s="8" customFormat="1">
+    <row r="580" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A580"/>
       <c r="B580"/>
       <c r="C580"/>
     </row>
-    <row r="581" spans="1:3">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A581"/>
       <c r="B581"/>
       <c r="C581"/>
     </row>
-    <row r="582" spans="1:3">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A582"/>
       <c r="B582"/>
       <c r="C582"/>
     </row>
-    <row r="583" spans="1:3">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A583"/>
       <c r="B583"/>
       <c r="C583"/>
     </row>
-    <row r="584" spans="1:3">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A584"/>
       <c r="B584"/>
       <c r="C584"/>
     </row>
-    <row r="585" spans="1:3">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A585"/>
       <c r="B585"/>
       <c r="C585"/>
     </row>
-    <row r="586" spans="1:3">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A586"/>
       <c r="B586"/>
       <c r="C586"/>
     </row>
-    <row r="587" spans="1:3">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A587"/>
       <c r="B587"/>
       <c r="C587"/>
     </row>
-    <row r="588" spans="1:3">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A588"/>
       <c r="B588"/>
       <c r="C588"/>
     </row>
-    <row r="589" spans="1:3">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A589"/>
       <c r="B589"/>
       <c r="C589"/>
     </row>
-    <row r="590" spans="1:3">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A590"/>
       <c r="B590"/>
       <c r="C590"/>
     </row>
-    <row r="591" spans="1:3">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A591"/>
       <c r="B591"/>
       <c r="C591"/>
     </row>
-    <row r="592" spans="1:3">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A592"/>
       <c r="B592"/>
       <c r="C592"/>
     </row>
-    <row r="593" spans="1:3">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A593"/>
       <c r="B593"/>
       <c r="C593"/>
     </row>
-    <row r="594" spans="1:3">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A594"/>
       <c r="B594"/>
       <c r="C594"/>
     </row>
-    <row r="595" spans="1:3">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A595"/>
       <c r="B595"/>
       <c r="C595"/>
     </row>
-    <row r="596" spans="1:3">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A596"/>
       <c r="B596"/>
       <c r="C596"/>
     </row>
-    <row r="597" spans="1:3">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A597"/>
       <c r="B597"/>
       <c r="C597"/>
     </row>
-    <row r="598" spans="1:3">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A598"/>
       <c r="B598"/>
       <c r="C598"/>
     </row>
-    <row r="599" spans="1:3">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A599"/>
       <c r="B599"/>
       <c r="C599"/>
     </row>
-    <row r="600" spans="1:3">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A600"/>
       <c r="B600"/>
       <c r="C600"/>
     </row>
-    <row r="601" spans="1:3">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A601"/>
       <c r="B601"/>
       <c r="C601"/>
     </row>
-    <row r="602" spans="1:3">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A602"/>
       <c r="B602"/>
       <c r="C602"/>
     </row>
-    <row r="603" spans="1:3">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A603"/>
       <c r="B603"/>
       <c r="C603"/>
     </row>
-    <row r="604" spans="1:3">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A604"/>
       <c r="B604"/>
       <c r="C604"/>
     </row>
-    <row r="605" spans="1:3">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A605"/>
       <c r="B605"/>
       <c r="C605"/>
     </row>
-    <row r="606" spans="1:3">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A606"/>
       <c r="B606"/>
       <c r="C606"/>
     </row>
-    <row r="607" spans="1:3">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A607"/>
       <c r="B607"/>
       <c r="C607"/>
@@ -4936,12 +4936,7 @@
   <autoFilter ref="A1:C177" xr:uid="{F0F1E9AA-42FA-48CE-9C0D-6753CE8DE448}">
     <filterColumn colId="1">
       <filters>
-        <filter val="stage_4"/>
-        <filter val="stage_5"/>
-        <filter val="stage_6"/>
-        <filter val="stage_7"/>
-        <filter val="stage_8"/>
-        <filter val="stage_9"/>
+        <filter val="stage_13"/>
       </filters>
     </filterColumn>
   </autoFilter>
